--- a/Documents/FT部件指示说明0311.xlsx
+++ b/Documents/FT部件指示说明0311.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C1436-5A17-47FC-914F-FC269C733E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="421" activeTab="2"/>
+    <workbookView xWindow="1275" yWindow="840" windowWidth="23235" windowHeight="13620" tabRatio="421" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上料" sheetId="1" r:id="rId1"/>
@@ -1157,14 +1163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,151 +1181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,192 +1209,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1664,264 +1347,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1946,14 +1378,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1982,84 +1408,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2073,9 +1467,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>144145</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2103,6 +1503,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2135,18 +1536,6 @@
             </a:rPr>
             <a:t>盘控制按键</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2165,9 +1554,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2311,18 +1706,6 @@
             </a:rPr>
             <a:t>夹爪控制按键</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2341,9 +1724,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2487,18 +1876,6 @@
             </a:rPr>
             <a:t>夹爪电机移动</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2519,13 +1896,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2561,20 +1944,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="组合 1"/>
+        <xdr:cNvPr id="2" name="组合 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8178165" y="5176520"/>
-          <a:ext cx="2256155" cy="1851660"/>
+          <a:off x="9326880" y="4856480"/>
+          <a:ext cx="3022600" cy="1737360"/>
           <a:chOff x="12276" y="4236"/>
           <a:chExt cx="2736" cy="2628"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="上箭头 3"/>
+          <xdr:cNvPr id="4" name="上箭头 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2707,13 +2102,18 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>Y+</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="下箭头 6"/>
+          <xdr:cNvPr id="7" name="下箭头 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2846,13 +2246,18 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>Y-</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="左箭头 7"/>
+          <xdr:cNvPr id="8" name="左箭头 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2985,13 +2390,18 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>X-</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="右箭头 9"/>
+          <xdr:cNvPr id="10" name="右箭头 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3124,7 +2534,6 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>X+</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3135,7 +2544,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3151,13 +2560,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3191,9 +2606,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3352,18 +2773,6 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3382,9 +2791,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3543,18 +2958,6 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3573,9 +2976,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="文本框 24"/>
+        <xdr:cNvPr id="25" name="文本框 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3734,18 +3143,6 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3764,9 +3161,15 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>183515</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25"/>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3925,18 +3328,6 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3955,9 +3346,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="文本框 26"/>
+        <xdr:cNvPr id="27" name="文本框 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4116,18 +3513,6 @@
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4146,9 +3531,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="文本框 27"/>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4307,18 +3698,6 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4337,9 +3716,15 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="文本框 28"/>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4504,7 +3889,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4518,9 +3903,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4679,18 +4070,6 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4711,13 +4090,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="QQ拼音截图20250212104332"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="QQ拼音截图20250212104332">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4749,20 +4134,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="组合 12"/>
+        <xdr:cNvPr id="13" name="组合 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5455920" y="5876290"/>
-          <a:ext cx="1835150" cy="1412240"/>
+          <a:off x="6029325" y="5491480"/>
+          <a:ext cx="2040890" cy="1332230"/>
           <a:chOff x="12276" y="4064"/>
           <a:chExt cx="2806" cy="2800"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="上箭头 6"/>
+          <xdr:cNvPr id="7" name="上箭头 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4790,19 +4187,25 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>Y+</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="下箭头 7"/>
+          <xdr:cNvPr id="8" name="下箭头 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4830,19 +4233,25 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>Y-</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="左箭头 8"/>
+          <xdr:cNvPr id="9" name="左箭头 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4870,19 +4279,25 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>X-</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="右箭头 9"/>
+          <xdr:cNvPr id="10" name="右箭头 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4910,19 +4325,25 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>X+</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="上箭头 10"/>
+          <xdr:cNvPr id="11" name="上箭头 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5055,13 +4476,18 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>Z-</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="下箭头 11"/>
+          <xdr:cNvPr id="12" name="下箭头 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5194,7 +4620,6 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
               <a:t>Z+</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5214,9 +4639,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5375,18 +4806,6 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5405,9 +4824,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文本框 15"/>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5566,18 +4991,6 @@
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5596,9 +5009,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文本框 16"/>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5757,18 +5176,6 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5778,7 +5185,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5792,9 +5199,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5953,18 +5366,6 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5983,9 +5384,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6144,18 +5551,6 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6174,9 +5569,15 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6335,18 +5736,6 @@
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6365,9 +5754,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6526,18 +5921,6 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6790,56 +6173,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B3:N39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="17.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="7.52777777777778" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="12.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="12.9444444444444" customWidth="1"/>
-    <col min="9" max="9" width="5.59259259259259" customWidth="1"/>
-    <col min="10" max="10" width="12.8518518518519" customWidth="1"/>
-    <col min="12" max="12" width="14.2962962962963" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I3" s="20"/>
       <c r="J3" s="21" t="s">
         <v>4</v>
       </c>
+      <c r="K3" s="20"/>
       <c r="L3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -6852,17 +6250,21 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -6878,20 +6280,21 @@
       <c r="H6" s="6">
         <v>402</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23">
         <v>206</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -6907,20 +6310,21 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>306</v>
       </c>
@@ -6940,20 +6344,21 @@
       <c r="H8" s="6">
         <v>309</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23">
         <v>207</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="6">
         <v>401</v>
@@ -6965,18 +6370,19 @@
         <v>403</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="23"/>
+      <c r="N9" s="24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6984,20 +6390,21 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -7005,16 +6412,17 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23">
         <v>405</v>
       </c>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="N11" s="23"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -7023,23 +6431,24 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -7053,10 +6462,15 @@
         <v>51</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -7070,15 +6484,19 @@
       <c r="H14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="23"/>
+      <c r="L14" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -7092,15 +6510,19 @@
       <c r="H15" s="6">
         <v>266</v>
       </c>
-      <c r="J15" s="6">
+      <c r="I15" s="20"/>
+      <c r="J15" s="23">
         <v>268</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="K15" s="23"/>
+      <c r="L15" s="23">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
@@ -7115,15 +6537,19 @@
       <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="20"/>
+      <c r="J16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="6">
         <v>421</v>
       </c>
@@ -7138,14 +6564,19 @@
       <c r="H17" s="6">
         <v>267</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
         <v>269</v>
       </c>
-      <c r="L17">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
@@ -7160,8 +6591,15 @@
       <c r="H18" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>460</v>
       </c>
@@ -7175,7 +6613,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -7191,23 +6629,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="6">
         <v>440</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>441</v>
       </c>
       <c r="F21" s="6">
         <v>442</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6">
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -7220,9 +6658,8 @@
       <c r="H26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:10">
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>7</v>
@@ -7234,66 +6671,56 @@
       <c r="H27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27">
         <v>31</v>
       </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="2:10">
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8"/>
       <c r="G28" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="2:14">
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="8"/>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
       <c r="N29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="8"/>
       <c r="G30" t="s">
         <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="2:10">
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -7306,18 +6733,14 @@
       <c r="H31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="7:14">
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="G32" t="s">
         <v>50</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
       <c r="K32" t="s">
         <v>51</v>
       </c>
@@ -7325,7 +6748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>349</v>
       </c>
@@ -7338,36 +6761,30 @@
       <c r="H33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="7:10">
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="G34" t="s">
         <v>55</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="3:10">
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C35" s="2"/>
       <c r="G35" t="s">
         <v>57</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="8:8">
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -7383,11 +6800,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -7396,79 +6813,67 @@
       <c r="E38" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38"/>
+      <c r="F38" s="26"/>
       <c r="H38" s="2"/>
       <c r="N38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="D39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
+      <c r="F39" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="4.44444444444444" customWidth="1"/>
-    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="8.22222222222222" customWidth="1"/>
-    <col min="12" max="12" width="4.22222222222222" customWidth="1"/>
-    <col min="16" max="16" width="10.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="4.25" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:16">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.15">
       <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="3:16">
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="3:16">
+      <c r="M3" s="1"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C4">
         <v>52</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="3:16">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -7481,17 +6886,14 @@
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="3:16">
-      <c r="C6" s="8">
+      <c r="M5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C6">
         <v>424</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>425</v>
       </c>
       <c r="G6">
@@ -7500,13 +6902,9 @@
       <c r="I6">
         <v>214</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" ht="13" customHeight="1" spans="3:16">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="3:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
@@ -7519,13 +6917,11 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="3:16">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C8">
         <v>464</v>
       </c>
@@ -7538,13 +6934,11 @@
       <c r="I8">
         <v>215</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="3:16">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
@@ -7558,17 +6952,15 @@
       <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="3:16">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>444</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6">
         <v>445</v>
       </c>
@@ -7578,45 +6970,31 @@
       <c r="I10">
         <v>209</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="12:16">
-      <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="5:16">
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
       <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="3:16">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="3:3">
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C14">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
@@ -7630,11 +7008,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="8">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C16">
         <v>426</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>427</v>
       </c>
       <c r="G16">
@@ -7644,7 +7022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
@@ -7658,11 +7036,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C18">
         <v>466</v>
       </c>
-      <c r="D18" s="8"/>
       <c r="E18">
         <v>467</v>
       </c>
@@ -7673,7 +7050,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
@@ -7688,7 +7065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C20">
         <v>446</v>
       </c>
@@ -7702,15 +7079,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" ht="34" customHeight="1" spans="3:5">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>220</v>
       </c>
@@ -7718,22 +7095,22 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="16:16">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
       <c r="P24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="14:14">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
       <c r="N25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="14:14">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
       <c r="N26">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="14:16">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
       <c r="N27" s="2" t="s">
         <v>76</v>
       </c>
@@ -7741,7 +7118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="14:16">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
       <c r="N28">
         <v>406</v>
       </c>
@@ -7749,7 +7126,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="14:16">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
       <c r="N29" s="5" t="s">
         <v>78</v>
       </c>
@@ -7757,43 +7134,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="15:15">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
       <c r="O30" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="15:15">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
       <c r="O31">
         <v>409</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" customWidth="1"/>
-    <col min="2" max="4" width="19.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="4" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15"/>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -7810,123 +7185,70 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
       <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
       <c r="L3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
       <c r="P3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="E5" s="8"/>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5"/>
-      <c r="I5" s="8"/>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5"/>
-      <c r="M5" s="8"/>
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5"/>
-      <c r="Q5" s="17"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6"/>
-      <c r="Q6" s="17"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="8"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7"/>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8"/>
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7"/>
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8"/>
       <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
@@ -7934,7 +7256,6 @@
       <c r="L7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="8"/>
       <c r="N7" s="5" t="s">
         <v>9</v>
       </c>
@@ -7942,25 +7263,21 @@
       <c r="P7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="17"/>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>428</v>
       </c>
-      <c r="C8"/>
       <c r="D8" s="6">
         <v>276</v>
       </c>
-      <c r="E8" s="8"/>
       <c r="F8">
         <v>430</v>
       </c>
-      <c r="G8"/>
       <c r="H8" s="6">
         <v>278</v>
       </c>
-      <c r="I8" s="8"/>
       <c r="J8" s="6">
         <v>432</v>
       </c>
@@ -7968,7 +7285,6 @@
       <c r="L8" s="6">
         <v>280</v>
       </c>
-      <c r="M8" s="8"/>
       <c r="N8" s="6">
         <v>434</v>
       </c>
@@ -7976,10 +7292,9 @@
       <c r="P8" s="6">
         <v>282</v>
       </c>
-      <c r="Q8" s="17"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="8"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -7987,7 +7302,6 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8"/>
       <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
@@ -7995,7 +7309,6 @@
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="8"/>
       <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
@@ -8003,7 +7316,6 @@
       <c r="L9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="8"/>
       <c r="N9" s="5" t="s">
         <v>15</v>
       </c>
@@ -8011,9 +7323,9 @@
       <c r="P9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>429</v>
       </c>
@@ -8021,7 +7333,6 @@
       <c r="D10" s="6">
         <v>277</v>
       </c>
-      <c r="E10" s="8"/>
       <c r="F10" s="6">
         <v>431</v>
       </c>
@@ -8029,7 +7340,6 @@
       <c r="H10" s="6">
         <v>279</v>
       </c>
-      <c r="I10" s="8"/>
       <c r="J10" s="6">
         <v>433</v>
       </c>
@@ -8037,7 +7347,6 @@
       <c r="L10" s="6">
         <v>281</v>
       </c>
-      <c r="M10" s="8"/>
       <c r="N10" s="6">
         <v>435</v>
       </c>
@@ -8045,10 +7354,9 @@
       <c r="P10" s="6">
         <v>283</v>
       </c>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="8"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -8056,7 +7364,6 @@
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8"/>
       <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
@@ -8064,7 +7371,6 @@
       <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="8"/>
       <c r="J11" s="5" t="s">
         <v>28</v>
       </c>
@@ -8072,7 +7378,6 @@
       <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="8"/>
       <c r="N11" s="5" t="s">
         <v>28</v>
       </c>
@@ -8080,25 +7385,21 @@
       <c r="P11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>468</v>
       </c>
-      <c r="C12"/>
       <c r="D12">
         <v>469</v>
       </c>
-      <c r="E12" s="8"/>
       <c r="F12">
         <v>470</v>
       </c>
-      <c r="G12"/>
       <c r="H12">
         <v>471</v>
       </c>
-      <c r="I12" s="8"/>
       <c r="J12" s="6">
         <v>472</v>
       </c>
@@ -8106,7 +7407,6 @@
       <c r="L12" s="6">
         <v>473</v>
       </c>
-      <c r="M12" s="8"/>
       <c r="N12" s="6">
         <v>474</v>
       </c>
@@ -8114,10 +7414,9 @@
       <c r="P12" s="6">
         <v>475</v>
       </c>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="8"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -8125,7 +7424,6 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8"/>
       <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
@@ -8133,7 +7431,6 @@
       <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="8"/>
       <c r="J13" s="5" t="s">
         <v>13</v>
       </c>
@@ -8141,7 +7438,6 @@
       <c r="L13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="8"/>
       <c r="N13" s="5" t="s">
         <v>13</v>
       </c>
@@ -8149,191 +7445,155 @@
       <c r="P13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="17"/>
-    </row>
-    <row r="14" ht="15.15" spans="2:17">
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14" s="6">
         <v>448</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="6">
         <v>449</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="6">
         <v>450</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6">
         <v>451</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="6">
         <v>452</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6">
         <v>453</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="6">
         <v>454</v>
       </c>
-      <c r="O14" s="10"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="6">
         <v>455</v>
       </c>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -8341,7 +7601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
@@ -8349,7 +7609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>37</v>
       </c>
@@ -8360,19 +7620,18 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>119</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C33"/>
       <c r="G33">
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -8380,7 +7639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -8388,19 +7647,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C36"/>
       <c r="H36">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -8411,7 +7669,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -8419,7 +7677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -8430,21 +7688,21 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D40" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -8457,40 +7715,39 @@
       <c r="D41" t="s">
         <v>135</v>
       </c>
-      <c r="E41"/>
       <c r="F41">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D43" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>140</v>
       </c>
@@ -8498,7 +7755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -8506,7 +7763,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>38</v>
       </c>
@@ -8514,7 +7771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -8522,7 +7779,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -8530,7 +7787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -8538,7 +7795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -8546,19 +7803,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>149</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>150</v>
       </c>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -8566,7 +7823,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -8574,7 +7831,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -8582,7 +7839,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -8590,7 +7847,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -8598,7 +7855,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -8606,7 +7863,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -8614,7 +7871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -8622,10 +7879,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -8633,34 +7890,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:P33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>232</v>
       </c>
@@ -8710,7 +7966,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>233</v>
       </c>
@@ -8760,7 +8016,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>234</v>
       </c>
@@ -8810,7 +8066,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>235</v>
       </c>
@@ -8860,7 +8116,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>174</v>
       </c>
@@ -8886,7 +8142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -8912,7 +8168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>700</v>
       </c>
@@ -8962,7 +8218,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>701</v>
       </c>
@@ -8988,7 +8244,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>318</v>
       </c>
@@ -9038,7 +8294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
@@ -9052,7 +8308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20">
         <v>699</v>
       </c>
@@ -9066,7 +8322,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -9092,7 +8348,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
@@ -9118,7 +8374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>703</v>
       </c>
@@ -9168,13 +8424,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D25" s="6"/>
       <c r="H25" s="6"/>
       <c r="L25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>705</v>
       </c>
@@ -9201,7 +8457,7 @@
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>326</v>
       </c>
@@ -9251,7 +8507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
@@ -9265,7 +8521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C30">
         <v>706</v>
       </c>
@@ -9279,39 +8535,38 @@
         <v>727</v>
       </c>
     </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="I32" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33">
         <v>740</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -9325,7 +8580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -9335,7 +8590,7 @@
       <c r="D2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -9355,7 +8610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -9363,7 +8618,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -9383,7 +8638,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -9391,7 +8646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -9405,7 +8660,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -9415,7 +8670,7 @@
       <c r="D8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -9435,7 +8690,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -9443,7 +8698,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -9463,7 +8718,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -9471,7 +8726,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -9479,7 +8734,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -9487,7 +8742,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -9495,7 +8750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -9503,7 +8758,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -9511,7 +8766,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -9519,7 +8774,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -9527,7 +8782,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>229</v>
       </c>
@@ -9535,7 +8790,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>230</v>
       </c>
@@ -9543,7 +8798,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>232</v>
       </c>
@@ -9551,7 +8806,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>234</v>
       </c>
@@ -9559,7 +8814,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>236</v>
       </c>
@@ -9567,7 +8822,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -9575,7 +8830,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -9583,7 +8838,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -9591,7 +8846,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -9599,7 +8854,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>242</v>
       </c>
@@ -9607,7 +8862,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -9615,7 +8870,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>244</v>
       </c>
@@ -9623,7 +8878,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -9631,7 +8886,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -9639,7 +8894,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -9647,7 +8902,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>248</v>
       </c>
@@ -9655,7 +8910,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>250</v>
       </c>
@@ -9663,7 +8918,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -9671,7 +8926,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>254</v>
       </c>
@@ -9679,7 +8934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>256</v>
       </c>
@@ -9687,7 +8942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>258</v>
       </c>
@@ -9695,32 +8950,32 @@
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -9728,7 +8983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -9736,7 +8991,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -9744,17 +8999,17 @@
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -9762,7 +9017,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -9770,7 +9025,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>277</v>
       </c>
@@ -9778,7 +9033,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -9786,12 +9041,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -9799,7 +9054,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>284</v>
       </c>
@@ -9807,7 +9062,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>286</v>
       </c>
@@ -9815,7 +9070,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -9823,7 +9078,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>290</v>
       </c>
@@ -9831,7 +9086,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>292</v>
       </c>
@@ -9839,7 +9094,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -9847,7 +9102,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>296</v>
       </c>
@@ -9855,7 +9110,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>298</v>
       </c>
@@ -9863,7 +9118,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>300</v>
       </c>
@@ -9871,32 +9126,32 @@
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>307</v>
       </c>
@@ -9904,7 +9159,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>309</v>
       </c>
@@ -9912,7 +9167,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -9920,17 +9175,17 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>315</v>
       </c>
@@ -9938,7 +9193,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -9946,7 +9201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>319</v>
       </c>
@@ -9954,7 +9209,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>321</v>
       </c>
@@ -9962,7 +9217,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>323</v>
       </c>
@@ -9970,7 +9225,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>325</v>
       </c>
@@ -9978,7 +9233,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>327</v>
       </c>
@@ -9986,7 +9241,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>329</v>
       </c>
@@ -9994,7 +9249,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -10002,7 +9257,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>333</v>
       </c>
@@ -10010,7 +9265,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>335</v>
       </c>
@@ -10018,7 +9273,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>337</v>
       </c>
@@ -10026,22 +9281,22 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>342</v>
       </c>
@@ -10049,7 +9304,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>344</v>
       </c>
@@ -10057,7 +9312,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>346</v>
       </c>
@@ -10065,7 +9320,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>348</v>
       </c>
@@ -10073,7 +9328,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>350</v>
       </c>
@@ -10081,7 +9336,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>352</v>
       </c>
@@ -10089,7 +9344,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>354</v>
       </c>
@@ -10097,7 +9352,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>356</v>
       </c>
@@ -10105,7 +9360,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>358</v>
       </c>
@@ -10113,7 +9368,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>360</v>
       </c>
@@ -10121,7 +9376,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>362</v>
       </c>
@@ -10129,7 +9384,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>364</v>
       </c>
@@ -10137,22 +9392,22 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>369</v>
       </c>
@@ -10160,7 +9415,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>371</v>
       </c>
@@ -10169,7 +9424,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Documents/FT部件指示说明0311.xlsx
+++ b/Documents/FT部件指示说明0311.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C1436-5A17-47FC-914F-FC269C733E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A113C-8234-4F82-BE94-9C2C02EB3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="840" windowWidth="23235" windowHeight="13620" tabRatio="421" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上料" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="608">
   <si>
     <t>上料工位：</t>
   </si>
@@ -296,875 +294,1884 @@
     <t>POS[24]</t>
   </si>
   <si>
+    <t>PlcInIO[55]</t>
+  </si>
+  <si>
+    <t>PlcInIO[56]</t>
+  </si>
+  <si>
+    <t>PlcInIO[57]</t>
+  </si>
+  <si>
+    <t>搬运X定位：</t>
+  </si>
+  <si>
+    <t>POS[6]</t>
+  </si>
+  <si>
+    <t>PlcInIO[500]</t>
+  </si>
+  <si>
+    <t>气缸1夹爪12取料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[501]</t>
+  </si>
+  <si>
+    <t>气缸2夹爪12取料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[502]</t>
+  </si>
+  <si>
+    <t>PlcInIO[520]</t>
+  </si>
+  <si>
+    <t>气缸1夹爪34放料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[521]</t>
+  </si>
+  <si>
+    <t>气缸2夹爪34放料位</t>
+  </si>
+  <si>
+    <t>PlcInID[30]</t>
+  </si>
+  <si>
+    <t>单目SK相机位置选择</t>
+  </si>
+  <si>
+    <t>单目SK位置相机移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[510]</t>
+  </si>
+  <si>
+    <t>PlcInID[31]</t>
+  </si>
+  <si>
+    <t>四目SK相机位置选择</t>
+  </si>
+  <si>
+    <t>四目SK位置相机移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[511]</t>
+  </si>
+  <si>
+    <t>PlcInID[32]</t>
+  </si>
+  <si>
+    <t>单目sk激光点选择</t>
+  </si>
+  <si>
+    <t>单目sk激光点移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[512]</t>
+  </si>
+  <si>
+    <t>PlcInID[33]</t>
+  </si>
+  <si>
+    <t>四目sk激光点选择</t>
+  </si>
+  <si>
+    <t>四目sk激光点移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[513]</t>
+  </si>
+  <si>
+    <t>PlcInIO[499]</t>
+  </si>
+  <si>
+    <t>搬运Y定位：</t>
+  </si>
+  <si>
+    <t>POS[7]</t>
+  </si>
+  <si>
+    <t>PlcInIO[550]</t>
+  </si>
+  <si>
+    <t>PlcInIO[551]</t>
+  </si>
+  <si>
+    <t>PlcInIO[570]</t>
+  </si>
+  <si>
+    <t>PlcInIO[571]</t>
+  </si>
+  <si>
+    <t>PlcInIO[555]</t>
+  </si>
+  <si>
+    <t>单目skt拍照位</t>
+  </si>
+  <si>
+    <t>PlcInIO[556]</t>
+  </si>
+  <si>
+    <t>四目skt拍照位1</t>
+  </si>
+  <si>
+    <t>PlcInIO[557]</t>
+  </si>
+  <si>
+    <t>四目skt拍照位2</t>
+  </si>
+  <si>
+    <t>PlcInID[40]</t>
+  </si>
+  <si>
+    <t>下视觉位置选择</t>
+  </si>
+  <si>
+    <t>下视觉位置移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[552]</t>
+  </si>
+  <si>
+    <t>PlcInID[41]</t>
+  </si>
+  <si>
+    <t>夹爪相对视觉移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[560]</t>
+  </si>
+  <si>
+    <t>PlcInID[42]</t>
+  </si>
+  <si>
+    <t>PlcInIO[561]</t>
+  </si>
+  <si>
+    <t>PlcInID[43]</t>
+  </si>
+  <si>
+    <t>PlcInIO[562]</t>
+  </si>
+  <si>
+    <t>PlcInIO[549]</t>
+  </si>
+  <si>
+    <t>搬运Z定位：</t>
+  </si>
+  <si>
+    <t>POS[8]</t>
+  </si>
+  <si>
+    <t>PlcInIO[600]</t>
+  </si>
+  <si>
+    <t>PlcInIO[601]</t>
+  </si>
+  <si>
+    <t>PlcInIO[602]</t>
+  </si>
+  <si>
+    <t>下视觉夹爪移动</t>
+  </si>
+  <si>
+    <t>PlcInIO[603]</t>
+  </si>
+  <si>
+    <t>上升位置</t>
+  </si>
+  <si>
+    <t>PlcInIO[604]</t>
+  </si>
+  <si>
+    <t>PlcInIO[605]</t>
+  </si>
+  <si>
+    <t>PlcInIO[606]</t>
+  </si>
+  <si>
+    <t>PlcInIO[607]</t>
+  </si>
+  <si>
+    <t>四目skt拍照位</t>
+  </si>
+  <si>
+    <t>PlcInIO[608]</t>
+  </si>
+  <si>
+    <t>单目skt取料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[609]</t>
+  </si>
+  <si>
+    <t>单目skt放料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[610]</t>
+  </si>
+  <si>
+    <t>四目skt取料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[611]</t>
+  </si>
+  <si>
+    <t>四目skt放料位</t>
+  </si>
+  <si>
+    <t>PlcInIO[612]</t>
+  </si>
+  <si>
+    <t>PlcInIO[613]</t>
+  </si>
+  <si>
+    <t>PlcInIO[599]</t>
+  </si>
+  <si>
+    <t>气缸</t>
+  </si>
+  <si>
+    <t>压盖压合</t>
+  </si>
+  <si>
+    <t>翻转90°</t>
+  </si>
+  <si>
+    <t>翻转0°</t>
+  </si>
+  <si>
+    <t>压盖打开</t>
+  </si>
+  <si>
+    <t>工装上升</t>
+  </si>
+  <si>
+    <t>一键压合</t>
+  </si>
+  <si>
+    <t>工装下降</t>
+  </si>
+  <si>
+    <t>一键开启</t>
+  </si>
+  <si>
+    <t>平移1：</t>
+  </si>
+  <si>
+    <t>POS[9]</t>
+  </si>
+  <si>
+    <t>平移2</t>
+  </si>
+  <si>
+    <t>POS[10]</t>
+  </si>
+  <si>
+    <t>平移3</t>
+  </si>
+  <si>
+    <t>POS[11]</t>
+  </si>
+  <si>
+    <t>平移4</t>
+  </si>
+  <si>
+    <t>POS[12]</t>
+  </si>
+  <si>
+    <t>测试位置</t>
+  </si>
+  <si>
+    <t>翻转位置</t>
+  </si>
+  <si>
+    <t>黑体</t>
+  </si>
+  <si>
+    <t>POS[13]</t>
+  </si>
+  <si>
+    <t>POS[14]</t>
+  </si>
+  <si>
+    <t>POS[15]</t>
+  </si>
+  <si>
+    <t>POS[16]</t>
+  </si>
+  <si>
+    <t>高温位置</t>
+  </si>
+  <si>
+    <t>低温位置</t>
+  </si>
+  <si>
+    <t>维修位置</t>
+  </si>
+  <si>
+    <t>测试一键上</t>
+  </si>
+  <si>
+    <t>[800]</t>
+  </si>
+  <si>
+    <t>上料上视觉1标定</t>
+  </si>
+  <si>
+    <t>上视觉1</t>
+  </si>
+  <si>
+    <t>上视觉2</t>
+  </si>
+  <si>
+    <t>[801]</t>
+  </si>
+  <si>
+    <t>上料上视觉1标定复位</t>
+  </si>
+  <si>
+    <t>[802]</t>
+  </si>
+  <si>
+    <t>上料上视觉1对位</t>
+  </si>
+  <si>
+    <t>相机触发</t>
+  </si>
+  <si>
+    <t>对位</t>
+  </si>
+  <si>
+    <t>[803]</t>
+  </si>
+  <si>
+    <t>上料上视觉1触发</t>
+  </si>
+  <si>
+    <t>[804]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>标定</t>
+  </si>
+  <si>
+    <t>标定复位</t>
+  </si>
+  <si>
+    <t>[805]</t>
+  </si>
+  <si>
+    <t>[806]</t>
+  </si>
+  <si>
+    <t>下视觉1</t>
+  </si>
+  <si>
+    <t>下视觉2</t>
+  </si>
+  <si>
+    <t>[807]</t>
+  </si>
+  <si>
+    <t>[808]</t>
+  </si>
+  <si>
+    <t>[809]</t>
+  </si>
+  <si>
+    <t>[810]</t>
+  </si>
+  <si>
+    <t>下料下视觉1标定</t>
+  </si>
+  <si>
+    <t>[811]</t>
+  </si>
+  <si>
+    <t>下料下视觉1标定复位</t>
+  </si>
+  <si>
+    <t>[812]</t>
+  </si>
+  <si>
+    <t>下料下视觉1对位</t>
+  </si>
+  <si>
+    <t>[813]</t>
+  </si>
+  <si>
+    <t>下料下视觉1触发</t>
+  </si>
+  <si>
+    <t>[814]</t>
+  </si>
+  <si>
+    <t>[815]</t>
+  </si>
+  <si>
+    <t>[816]</t>
+  </si>
+  <si>
+    <t>[817]</t>
+  </si>
+  <si>
+    <t>[818]</t>
+  </si>
+  <si>
+    <t>[819]</t>
+  </si>
+  <si>
+    <t>[820]</t>
+  </si>
+  <si>
+    <t>测试上视觉1标定</t>
+  </si>
+  <si>
+    <t>[821]</t>
+  </si>
+  <si>
+    <t>测试上视觉1标定复位</t>
+  </si>
+  <si>
+    <t>[822]</t>
+  </si>
+  <si>
+    <t>测试上视觉1对位</t>
+  </si>
+  <si>
+    <t>[823]</t>
+  </si>
+  <si>
+    <t>测试上视觉1触发</t>
+  </si>
+  <si>
+    <t>[824]</t>
+  </si>
+  <si>
+    <t>[825]</t>
+  </si>
+  <si>
+    <t>[826]</t>
+  </si>
+  <si>
+    <t>[827]</t>
+  </si>
+  <si>
+    <t>[828]</t>
+  </si>
+  <si>
+    <t>[829]</t>
+  </si>
+  <si>
+    <t>[830]</t>
+  </si>
+  <si>
+    <t>[831]</t>
+  </si>
+  <si>
+    <t>[832]</t>
+  </si>
+  <si>
+    <t>[833]</t>
+  </si>
+  <si>
+    <t>PlcInIO[74]</t>
+  </si>
+  <si>
+    <t>下料激光测盘位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[75]</t>
+  </si>
+  <si>
+    <t>托盘扫码位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[76]</t>
+  </si>
+  <si>
+    <t>下视觉吸嘴位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[77]</t>
+  </si>
+  <si>
+    <t>上料位夹盘位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[78]</t>
+  </si>
+  <si>
+    <t>下料位夹盘位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[79]</t>
+  </si>
+  <si>
+    <t>下料位夹盘位置</t>
+  </si>
+  <si>
+    <t>PlcInIO[80]</t>
+  </si>
+  <si>
+    <t>PlcInIO[81]</t>
+  </si>
+  <si>
+    <t>PlcInIO[82]</t>
+  </si>
+  <si>
+    <t>PlcInIO[83]</t>
+  </si>
+  <si>
+    <t>PlcInIO[84]</t>
+  </si>
+  <si>
+    <t>PlcInIO[85]</t>
+  </si>
+  <si>
+    <t>Tray盘上料初始位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[86]</t>
+  </si>
+  <si>
+    <t>Tray盘下料初始位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[87]</t>
+  </si>
+  <si>
+    <t>Tray盘测试初始位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[88]</t>
+  </si>
+  <si>
+    <t>PlcInIO[89]</t>
+  </si>
+  <si>
+    <t>PlcInIO[90]</t>
+  </si>
+  <si>
+    <t>翻转平移上料位位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[91]</t>
+  </si>
+  <si>
+    <t>翻转平移下料位位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[92]</t>
+  </si>
+  <si>
+    <t>气缸2测试交接取料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[93]</t>
+  </si>
+  <si>
+    <t>气缸2测试交接放料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[94]</t>
+  </si>
+  <si>
+    <t>PlcInIO[95]</t>
+  </si>
+  <si>
+    <t>气缸1测试交接取料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[96]</t>
+  </si>
+  <si>
+    <t>气缸1测试交接放料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[97]</t>
+  </si>
+  <si>
+    <t>下视觉位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[98]</t>
+  </si>
+  <si>
+    <t>搬运Z上升位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[99]</t>
+  </si>
+  <si>
+    <t>skt穴位拍照位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[100]</t>
+  </si>
+  <si>
+    <t>skt穴位放料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[101]</t>
+  </si>
+  <si>
+    <t>搬运X轴skt1位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[102]</t>
+  </si>
+  <si>
+    <t>搬运X轴skt2位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[103]</t>
+  </si>
+  <si>
+    <t>搬运X轴skt3位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[104]</t>
+  </si>
+  <si>
+    <t>搬运X轴skt4位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[105]</t>
+  </si>
+  <si>
+    <t>PlcInIO[106]</t>
+  </si>
+  <si>
+    <t>PlcInIO[107]</t>
+  </si>
+  <si>
+    <t>PlcInIO[108]</t>
+  </si>
+  <si>
+    <t>PlcInIO[109]</t>
+  </si>
+  <si>
+    <t>PlcInIO[110]</t>
+  </si>
+  <si>
+    <t>单目激光复检位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[111]</t>
+  </si>
+  <si>
+    <t>四目激光复检位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[112]</t>
+  </si>
+  <si>
+    <t>四目激光复检位置自动计算</t>
+  </si>
+  <si>
+    <t>PlcInIO[113]</t>
+  </si>
+  <si>
+    <t>PlcInIO[114]</t>
+  </si>
+  <si>
+    <t>PlcInIO[115]</t>
+  </si>
+  <si>
+    <t>SK1上料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[116]</t>
+  </si>
+  <si>
+    <t>SK1翻转位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[117]</t>
+  </si>
+  <si>
+    <t>SK1测试位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[118]</t>
+  </si>
+  <si>
+    <t>SK2上料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[119]</t>
+  </si>
+  <si>
+    <t>SK2翻转位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[120]</t>
+  </si>
+  <si>
+    <t>SK2测试位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[121]</t>
+  </si>
+  <si>
+    <t>SK3上料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[122]</t>
+  </si>
+  <si>
+    <t>SK3翻转位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[123]</t>
+  </si>
+  <si>
+    <t>SK3测试位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[124]</t>
+  </si>
+  <si>
+    <t>SK4上料位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[125]</t>
+  </si>
+  <si>
+    <t>SK4翻转位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[126]</t>
+  </si>
+  <si>
+    <t>SK4测试位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[127]</t>
+  </si>
+  <si>
+    <t>PlcInIO[128]</t>
+  </si>
+  <si>
+    <t>PlcInIO[129]</t>
+  </si>
+  <si>
+    <t>PlcInIO[130]</t>
+  </si>
+  <si>
+    <t>HT1高温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[131]</t>
+  </si>
+  <si>
+    <t>HT1低温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[132]</t>
+  </si>
+  <si>
+    <t>HT1维修位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[133]</t>
+  </si>
+  <si>
+    <t>HT2高温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[134]</t>
+  </si>
+  <si>
+    <t>HT2低温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[135]</t>
+  </si>
+  <si>
+    <t>HT2维修位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[136]</t>
+  </si>
+  <si>
+    <t>HT3高温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[137]</t>
+  </si>
+  <si>
+    <t>HT3低温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[138]</t>
+  </si>
+  <si>
+    <t>HT3维修位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[139]</t>
+  </si>
+  <si>
+    <t>HT4高温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[140]</t>
+  </si>
+  <si>
+    <t>HT4低温位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[141]</t>
+  </si>
+  <si>
+    <t>HT4维修位置示教</t>
+  </si>
+  <si>
+    <t>PlcInIO[142]</t>
+  </si>
+  <si>
+    <t>PlcInIO[143]</t>
+  </si>
+  <si>
+    <t>PlcInIO[144]</t>
+  </si>
+  <si>
+    <t>PlcInIO[145]</t>
+  </si>
+  <si>
+    <t>自动计算取料穴位</t>
+  </si>
+  <si>
+    <t>PlcInIO[146]</t>
+  </si>
+  <si>
+    <t>自动计算NG穴位</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮名称（唯一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮文本名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[52]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[424]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[425]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[446]</t>
+  </si>
+  <si>
+    <t>PlcInIO[447]</t>
+  </si>
+  <si>
+    <t>回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[464]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[465]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[428]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[444]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[445]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[19]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1_0°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1_180°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪1负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[53]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[426]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[427]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[466]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[467]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[446]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[447]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2_0°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2_180°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转夹爪2位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[220]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[221]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移去交接1位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移去交接2位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上料位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下料位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机下料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻转平移电机上料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平移夹爪</t>
+    </r>
+    <r>
+      <rPr>
+        <shadow/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <shadow/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹紧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平移夹爪</t>
+    </r>
+    <r>
+      <rPr>
+        <shadow/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <shadow/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>松开</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>平移夹爪</t>
+    </r>
+    <r>
+      <rPr>
+        <shadow/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <shadow/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上升</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪2夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪2松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪2下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪3夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪3松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪3上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪4夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪4松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移夹爪4下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[35]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[406]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[408]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[409]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[212]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[213]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[208]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[214]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[215]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[209]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[216]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[217]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[210]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[218]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[219]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[211]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PlcInIO[54]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件名称（唯一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[21]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1+90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1-90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪1负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[429]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[276]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[277]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[468]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[469]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[448]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[449]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[22]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2+90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2-90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪2位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlcInIO[55]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[430]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[431]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[278]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[279]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[470]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[471]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[450]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[451]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3+90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3-90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪3位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4夹紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4松开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4+90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4-90°位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试夹爪4位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlcInIO[56]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[432]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[433]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[280]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[281]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[472]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[473]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[452]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[453]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[23]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlcInIO[57]</t>
-  </si>
-  <si>
-    <t>搬运X定位：</t>
-  </si>
-  <si>
-    <t>POS[6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[434]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[435]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[282]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[283]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[474]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[475]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[454]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[455]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PlcInIO[500]</t>
-  </si>
-  <si>
-    <t>气缸1夹爪12取料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[501]</t>
-  </si>
-  <si>
-    <t>气缸2夹爪12取料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[502]</t>
-  </si>
-  <si>
-    <t>PlcInIO[520]</t>
-  </si>
-  <si>
-    <t>气缸1夹爪34放料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[521]</t>
-  </si>
-  <si>
-    <t>气缸2夹爪34放料位</t>
-  </si>
-  <si>
-    <t>PlcInID[30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[36]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X气缸1夹爪12取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X气缸2夹爪12取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X下视觉位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X气缸1夹爪34放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X气缸2夹爪34放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X单目SK相机位置选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X四目SK相机位置选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X单目sk激光点选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X四目sk激光点选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X单目SK位置相机移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X四目SK位置相机移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X单目sk激光点移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X四目sk激光点移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运X位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[37]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[38]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y气缸1夹爪12取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y气缸2夹爪12取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y气缸1夹爪34放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y气缸2夹爪34放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y单目skt拍照位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y四目skt拍照位1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y四目skt拍照位2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y下视觉位置选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y夹爪相对视觉移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y单目sk激光点选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y下视觉位置移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y单目sk激光点移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Y四目sk激光点移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z气缸1夹爪12取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z气缸2夹爪12取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z下视觉夹爪移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z上升位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z单目skt拍照位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z四目skt拍照位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z单目skt取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z单目skt放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z四目skt取料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z四目skt放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z气缸1夹爪34放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z气缸2夹爪34放料位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬运Z停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单目SK相机位置选择</t>
-  </si>
-  <si>
-    <t>单目SK位置相机移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[510]</t>
-  </si>
-  <si>
-    <t>PlcInID[31]</t>
-  </si>
-  <si>
-    <t>四目SK相机位置选择</t>
-  </si>
-  <si>
-    <t>四目SK位置相机移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[511]</t>
-  </si>
-  <si>
-    <t>PlcInID[32]</t>
-  </si>
-  <si>
-    <t>单目sk激光点选择</t>
-  </si>
-  <si>
-    <t>单目sk激光点移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[512]</t>
-  </si>
-  <si>
-    <t>PlcInID[33]</t>
-  </si>
-  <si>
-    <t>四目sk激光点选择</t>
-  </si>
-  <si>
-    <t>四目sk激光点移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[513]</t>
-  </si>
-  <si>
-    <t>PlcInIO[499]</t>
-  </si>
-  <si>
-    <t>搬运Y定位：</t>
-  </si>
-  <si>
-    <t>POS[7]</t>
-  </si>
-  <si>
-    <t>PlcInIO[550]</t>
-  </si>
-  <si>
-    <t>PlcInIO[551]</t>
-  </si>
-  <si>
-    <t>PlcInIO[570]</t>
-  </si>
-  <si>
-    <t>PlcInIO[571]</t>
-  </si>
-  <si>
-    <t>PlcInIO[555]</t>
-  </si>
-  <si>
-    <t>单目skt拍照位</t>
-  </si>
-  <si>
-    <t>PlcInIO[556]</t>
-  </si>
-  <si>
-    <t>四目skt拍照位1</t>
-  </si>
-  <si>
-    <t>PlcInIO[557]</t>
-  </si>
-  <si>
-    <t>四目skt拍照位2</t>
-  </si>
-  <si>
-    <t>PlcInID[40]</t>
-  </si>
-  <si>
-    <t>下视觉位置选择</t>
-  </si>
-  <si>
-    <t>下视觉位置移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[552]</t>
-  </si>
-  <si>
-    <t>PlcInID[41]</t>
-  </si>
-  <si>
-    <t>夹爪相对视觉移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[560]</t>
-  </si>
-  <si>
-    <t>PlcInID[42]</t>
-  </si>
-  <si>
-    <t>PlcInIO[561]</t>
-  </si>
-  <si>
-    <t>PlcInID[43]</t>
-  </si>
-  <si>
-    <t>PlcInIO[562]</t>
-  </si>
-  <si>
-    <t>PlcInIO[549]</t>
-  </si>
-  <si>
-    <t>搬运Z定位：</t>
-  </si>
-  <si>
-    <t>POS[8]</t>
-  </si>
-  <si>
-    <t>PlcInIO[600]</t>
-  </si>
-  <si>
-    <t>PlcInIO[601]</t>
-  </si>
-  <si>
-    <t>PlcInIO[602]</t>
-  </si>
-  <si>
-    <t>下视觉夹爪移动</t>
-  </si>
-  <si>
-    <t>PlcInIO[603]</t>
-  </si>
-  <si>
-    <t>上升位置</t>
-  </si>
-  <si>
-    <t>PlcInIO[604]</t>
-  </si>
-  <si>
-    <t>PlcInIO[605]</t>
-  </si>
-  <si>
-    <t>PlcInIO[606]</t>
-  </si>
-  <si>
-    <t>PlcInIO[607]</t>
-  </si>
-  <si>
-    <t>四目skt拍照位</t>
-  </si>
-  <si>
-    <t>PlcInIO[608]</t>
-  </si>
-  <si>
-    <t>单目skt取料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[609]</t>
-  </si>
-  <si>
-    <t>单目skt放料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[610]</t>
-  </si>
-  <si>
-    <t>四目skt取料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[611]</t>
-  </si>
-  <si>
-    <t>四目skt放料位</t>
-  </si>
-  <si>
-    <t>PlcInIO[612]</t>
-  </si>
-  <si>
-    <t>PlcInIO[613]</t>
-  </si>
-  <si>
-    <t>PlcInIO[599]</t>
-  </si>
-  <si>
-    <t>气缸</t>
-  </si>
-  <si>
-    <t>压盖压合</t>
-  </si>
-  <si>
-    <t>翻转90°</t>
-  </si>
-  <si>
-    <t>翻转0°</t>
-  </si>
-  <si>
-    <t>压盖打开</t>
-  </si>
-  <si>
-    <t>工装上升</t>
-  </si>
-  <si>
-    <t>一键压合</t>
-  </si>
-  <si>
-    <t>工装下降</t>
-  </si>
-  <si>
-    <t>一键开启</t>
-  </si>
-  <si>
-    <t>平移1：</t>
-  </si>
-  <si>
-    <t>POS[9]</t>
-  </si>
-  <si>
-    <t>平移2</t>
-  </si>
-  <si>
-    <t>POS[10]</t>
-  </si>
-  <si>
-    <t>平移3</t>
-  </si>
-  <si>
-    <t>POS[11]</t>
-  </si>
-  <si>
-    <t>平移4</t>
-  </si>
-  <si>
-    <t>POS[12]</t>
-  </si>
-  <si>
-    <t>测试位置</t>
-  </si>
-  <si>
-    <t>翻转位置</t>
-  </si>
-  <si>
-    <t>黑体</t>
-  </si>
-  <si>
-    <t>POS[13]</t>
-  </si>
-  <si>
-    <t>POS[14]</t>
-  </si>
-  <si>
-    <t>POS[15]</t>
-  </si>
-  <si>
-    <t>POS[16]</t>
-  </si>
-  <si>
-    <t>高温位置</t>
-  </si>
-  <si>
-    <t>低温位置</t>
-  </si>
-  <si>
-    <t>维修位置</t>
-  </si>
-  <si>
-    <t>测试一键上</t>
-  </si>
-  <si>
-    <t>[800]</t>
-  </si>
-  <si>
-    <t>上料上视觉1标定</t>
-  </si>
-  <si>
-    <t>上视觉1</t>
-  </si>
-  <si>
-    <t>上视觉2</t>
-  </si>
-  <si>
-    <t>[801]</t>
-  </si>
-  <si>
-    <t>上料上视觉1标定复位</t>
-  </si>
-  <si>
-    <t>[802]</t>
-  </si>
-  <si>
-    <t>上料上视觉1对位</t>
-  </si>
-  <si>
-    <t>相机触发</t>
-  </si>
-  <si>
-    <t>对位</t>
-  </si>
-  <si>
-    <t>[803]</t>
-  </si>
-  <si>
-    <t>上料上视觉1触发</t>
-  </si>
-  <si>
-    <t>[804]</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>标定</t>
-  </si>
-  <si>
-    <t>标定复位</t>
-  </si>
-  <si>
-    <t>[805]</t>
-  </si>
-  <si>
-    <t>[806]</t>
-  </si>
-  <si>
-    <t>下视觉1</t>
-  </si>
-  <si>
-    <t>下视觉2</t>
-  </si>
-  <si>
-    <t>[807]</t>
-  </si>
-  <si>
-    <t>[808]</t>
-  </si>
-  <si>
-    <t>[809]</t>
-  </si>
-  <si>
-    <t>[810]</t>
-  </si>
-  <si>
-    <t>下料下视觉1标定</t>
-  </si>
-  <si>
-    <t>[811]</t>
-  </si>
-  <si>
-    <t>下料下视觉1标定复位</t>
-  </si>
-  <si>
-    <t>[812]</t>
-  </si>
-  <si>
-    <t>下料下视觉1对位</t>
-  </si>
-  <si>
-    <t>[813]</t>
-  </si>
-  <si>
-    <t>下料下视觉1触发</t>
-  </si>
-  <si>
-    <t>[814]</t>
-  </si>
-  <si>
-    <t>[815]</t>
-  </si>
-  <si>
-    <t>[816]</t>
-  </si>
-  <si>
-    <t>[817]</t>
-  </si>
-  <si>
-    <t>[818]</t>
-  </si>
-  <si>
-    <t>[819]</t>
-  </si>
-  <si>
-    <t>[820]</t>
-  </si>
-  <si>
-    <t>测试上视觉1标定</t>
-  </si>
-  <si>
-    <t>[821]</t>
-  </si>
-  <si>
-    <t>测试上视觉1标定复位</t>
-  </si>
-  <si>
-    <t>[822]</t>
-  </si>
-  <si>
-    <t>测试上视觉1对位</t>
-  </si>
-  <si>
-    <t>[823]</t>
-  </si>
-  <si>
-    <t>测试上视觉1触发</t>
-  </si>
-  <si>
-    <t>[824]</t>
-  </si>
-  <si>
-    <t>[825]</t>
-  </si>
-  <si>
-    <t>[826]</t>
-  </si>
-  <si>
-    <t>[827]</t>
-  </si>
-  <si>
-    <t>[828]</t>
-  </si>
-  <si>
-    <t>[829]</t>
-  </si>
-  <si>
-    <t>[830]</t>
-  </si>
-  <si>
-    <t>[831]</t>
-  </si>
-  <si>
-    <t>[832]</t>
-  </si>
-  <si>
-    <t>[833]</t>
-  </si>
-  <si>
-    <t>PlcInIO[74]</t>
-  </si>
-  <si>
-    <t>下料激光测盘位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[75]</t>
-  </si>
-  <si>
-    <t>托盘扫码位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[76]</t>
-  </si>
-  <si>
-    <t>下视觉吸嘴位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[77]</t>
-  </si>
-  <si>
-    <t>上料位夹盘位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[78]</t>
-  </si>
-  <si>
-    <t>下料位夹盘位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[79]</t>
-  </si>
-  <si>
-    <t>下料位夹盘位置</t>
-  </si>
-  <si>
-    <t>PlcInIO[80]</t>
-  </si>
-  <si>
-    <t>PlcInIO[81]</t>
-  </si>
-  <si>
-    <t>PlcInIO[82]</t>
-  </si>
-  <si>
-    <t>PlcInIO[83]</t>
-  </si>
-  <si>
-    <t>PlcInIO[84]</t>
-  </si>
-  <si>
-    <t>PlcInIO[85]</t>
-  </si>
-  <si>
-    <t>Tray盘上料初始位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[86]</t>
-  </si>
-  <si>
-    <t>Tray盘下料初始位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[87]</t>
-  </si>
-  <si>
-    <t>Tray盘测试初始位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[88]</t>
-  </si>
-  <si>
-    <t>PlcInIO[89]</t>
-  </si>
-  <si>
-    <t>PlcInIO[90]</t>
-  </si>
-  <si>
-    <t>翻转平移上料位位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[91]</t>
-  </si>
-  <si>
-    <t>翻转平移下料位位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[92]</t>
-  </si>
-  <si>
-    <t>气缸2测试交接取料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[93]</t>
-  </si>
-  <si>
-    <t>气缸2测试交接放料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[94]</t>
-  </si>
-  <si>
-    <t>PlcInIO[95]</t>
-  </si>
-  <si>
-    <t>气缸1测试交接取料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[96]</t>
-  </si>
-  <si>
-    <t>气缸1测试交接放料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[97]</t>
-  </si>
-  <si>
-    <t>下视觉位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[98]</t>
-  </si>
-  <si>
-    <t>搬运Z上升位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[99]</t>
-  </si>
-  <si>
-    <t>skt穴位拍照位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[100]</t>
-  </si>
-  <si>
-    <t>skt穴位放料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[101]</t>
-  </si>
-  <si>
-    <t>搬运X轴skt1位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[102]</t>
-  </si>
-  <si>
-    <t>搬运X轴skt2位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[103]</t>
-  </si>
-  <si>
-    <t>搬运X轴skt3位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[104]</t>
-  </si>
-  <si>
-    <t>搬运X轴skt4位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[105]</t>
-  </si>
-  <si>
-    <t>PlcInIO[106]</t>
-  </si>
-  <si>
-    <t>PlcInIO[107]</t>
-  </si>
-  <si>
-    <t>PlcInIO[108]</t>
-  </si>
-  <si>
-    <t>PlcInIO[109]</t>
-  </si>
-  <si>
-    <t>PlcInIO[110]</t>
-  </si>
-  <si>
-    <t>单目激光复检位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[111]</t>
-  </si>
-  <si>
-    <t>四目激光复检位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[112]</t>
-  </si>
-  <si>
-    <t>四目激光复检位置自动计算</t>
-  </si>
-  <si>
-    <t>PlcInIO[113]</t>
-  </si>
-  <si>
-    <t>PlcInIO[114]</t>
-  </si>
-  <si>
-    <t>PlcInIO[115]</t>
-  </si>
-  <si>
-    <t>SK1上料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[116]</t>
-  </si>
-  <si>
-    <t>SK1翻转位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[117]</t>
-  </si>
-  <si>
-    <t>SK1测试位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[118]</t>
-  </si>
-  <si>
-    <t>SK2上料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[119]</t>
-  </si>
-  <si>
-    <t>SK2翻转位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[120]</t>
-  </si>
-  <si>
-    <t>SK2测试位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[121]</t>
-  </si>
-  <si>
-    <t>SK3上料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[122]</t>
-  </si>
-  <si>
-    <t>SK3翻转位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[123]</t>
-  </si>
-  <si>
-    <t>SK3测试位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[124]</t>
-  </si>
-  <si>
-    <t>SK4上料位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[125]</t>
-  </si>
-  <si>
-    <t>SK4翻转位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[126]</t>
-  </si>
-  <si>
-    <t>SK4测试位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[127]</t>
-  </si>
-  <si>
-    <t>PlcInIO[128]</t>
-  </si>
-  <si>
-    <t>PlcInIO[129]</t>
-  </si>
-  <si>
-    <t>PlcInIO[130]</t>
-  </si>
-  <si>
-    <t>HT1高温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[131]</t>
-  </si>
-  <si>
-    <t>HT1低温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[132]</t>
-  </si>
-  <si>
-    <t>HT1维修位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[133]</t>
-  </si>
-  <si>
-    <t>HT2高温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[134]</t>
-  </si>
-  <si>
-    <t>HT2低温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[135]</t>
-  </si>
-  <si>
-    <t>HT2维修位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[136]</t>
-  </si>
-  <si>
-    <t>HT3高温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[137]</t>
-  </si>
-  <si>
-    <t>HT3低温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[138]</t>
-  </si>
-  <si>
-    <t>HT3维修位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[139]</t>
-  </si>
-  <si>
-    <t>HT4高温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[140]</t>
-  </si>
-  <si>
-    <t>HT4低温位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[141]</t>
-  </si>
-  <si>
-    <t>HT4维修位置示教</t>
-  </si>
-  <si>
-    <t>PlcInIO[142]</t>
-  </si>
-  <si>
-    <t>PlcInIO[143]</t>
-  </si>
-  <si>
-    <t>PlcInIO[144]</t>
-  </si>
-  <si>
-    <t>PlcInIO[145]</t>
-  </si>
-  <si>
-    <t>自动计算取料穴位</t>
-  </si>
-  <si>
-    <t>PlcInIO[146]</t>
-  </si>
-  <si>
-    <t>自动计算NG穴位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,7 +2184,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,8 +2193,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <shadow/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <shadow/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <shadow/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +2263,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +2418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,7 +2497,52 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2555,8 +3665,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>397510</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4077,16 +5187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121285</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>260985</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4109,8 +5219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12976225" y="2617470"/>
-          <a:ext cx="2351405" cy="2413635"/>
+          <a:off x="17075785" y="104775"/>
+          <a:ext cx="2625725" cy="2265045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6181,11 +7291,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
@@ -6201,7 +7311,7 @@
     <col min="15" max="15" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6228,7 +7338,7 @@
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15">
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -6237,7 +7347,7 @@
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +7374,7 @@
       </c>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -6294,7 +7404,7 @@
       </c>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -6324,7 +7434,7 @@
       </c>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="6">
         <v>306</v>
       </c>
@@ -6358,7 +7468,7 @@
       </c>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="B9" s="6"/>
       <c r="C9" s="6">
         <v>401</v>
@@ -6382,7 +7492,7 @@
       </c>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6404,7 +7514,7 @@
       </c>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -6422,7 +7532,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -6448,7 +7558,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -6470,7 +7580,7 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15">
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -6496,7 +7606,7 @@
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -6522,7 +7632,7 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
@@ -6549,7 +7659,7 @@
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15">
       <c r="B17" s="6">
         <v>421</v>
       </c>
@@ -6576,7 +7686,7 @@
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15">
       <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
@@ -6599,7 +7709,7 @@
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15">
       <c r="B19">
         <v>460</v>
       </c>
@@ -6613,7 +7723,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15">
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -6629,7 +7739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15">
       <c r="B21" s="6">
         <v>440</v>
       </c>
@@ -6645,7 +7755,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -6659,7 +7769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15">
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>7</v>
@@ -6675,7 +7785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -6689,7 +7799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -6706,7 +7816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>43</v>
       </c>
@@ -6720,7 +7830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -6734,7 +7844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15">
       <c r="G32" t="s">
         <v>50</v>
       </c>
@@ -6748,7 +7858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14">
       <c r="B33">
         <v>349</v>
       </c>
@@ -6762,7 +7872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14">
       <c r="G34" t="s">
         <v>55</v>
       </c>
@@ -6770,17 +7880,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14">
       <c r="C35" s="2"/>
       <c r="G35" t="s">
         <v>57</v>
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14">
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
         <v>58</v>
       </c>
@@ -6800,7 +7910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>62</v>
       </c>
@@ -6813,20 +7923,18 @@
       <c r="E38" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="26"/>
       <c r="H38" s="2"/>
       <c r="N38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14">
       <c r="D39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6838,42 +7946,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:P31"/>
+  <dimension ref="C1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="4.5" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="12" max="12" width="4.25" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:20">
+      <c r="Q1" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20">
       <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q2" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20">
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q3" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
       <c r="C4">
         <v>52</v>
       </c>
       <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q4" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20">
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6888,8 +8050,20 @@
       </c>
       <c r="M5" s="6"/>
       <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q5" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
       <c r="C6">
         <v>424</v>
       </c>
@@ -6903,8 +8077,20 @@
         <v>214</v>
       </c>
       <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="3:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" ht="12.95" customHeight="1">
       <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
@@ -6920,8 +8106,20 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q7" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20">
       <c r="C8">
         <v>464</v>
       </c>
@@ -6937,8 +8135,20 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q8" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20">
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
@@ -6955,8 +8165,20 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q9" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
       <c r="C10" s="6">
         <v>444</v>
       </c>
@@ -6970,31 +8192,80 @@
       <c r="I10">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="3:20">
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q11" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20">
       <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q12" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20">
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q13" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="T13" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20">
       <c r="C14">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q14" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="T14" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20">
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
@@ -7007,8 +8278,20 @@
       <c r="I15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="Q15" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20">
       <c r="C16">
         <v>426</v>
       </c>
@@ -7021,8 +8304,20 @@
       <c r="I16">
         <v>218</v>
       </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q16" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20">
       <c r="C17" s="2" t="s">
         <v>70</v>
       </c>
@@ -7035,8 +8330,20 @@
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q17" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20">
       <c r="C18">
         <v>466</v>
       </c>
@@ -7049,8 +8356,20 @@
       <c r="I18">
         <v>219</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q18" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="T18" s="27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20">
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
@@ -7064,8 +8383,20 @@
       <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q19" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20">
       <c r="C20">
         <v>446</v>
       </c>
@@ -7078,97 +8409,372 @@
       <c r="I20">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q20" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" ht="33.950000000000003" customHeight="1">
       <c r="C21" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="3:20">
       <c r="C22">
         <v>220</v>
       </c>
       <c r="E22">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q22" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20">
+      <c r="Q23" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="S23" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20">
       <c r="P24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q24" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="S24" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20">
       <c r="N25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q25" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="S25" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20">
       <c r="N26">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q26" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="S26" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20">
       <c r="N27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q27" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="T27" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20">
       <c r="N28">
         <v>406</v>
       </c>
       <c r="P28">
         <v>408</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q28" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="T28" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20">
       <c r="N29" s="5" t="s">
         <v>78</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="T29" s="27"/>
+    </row>
+    <row r="30" spans="3:20" ht="15">
+      <c r="N30">
+        <v>310</v>
+      </c>
       <c r="O30" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="P30">
+        <v>311</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" ht="15">
       <c r="O31">
         <v>409</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" ht="15">
+      <c r="Q32" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="17:20">
+      <c r="Q33" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="17:20">
+      <c r="Q34" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20">
+      <c r="Q35" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="17:20">
+      <c r="Q36" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="17:20">
+      <c r="Q37" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="S37" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="17:20">
+      <c r="Q38" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="17:20">
+      <c r="Q39" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20">
+      <c r="Q40" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="17:20">
+      <c r="Q41" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q65"/>
+  <dimension ref="A2:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="4" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -7187,7 +8793,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
@@ -7202,10 +8808,10 @@
       </c>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -7220,23 +8826,23 @@
       </c>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -7265,7 +8871,7 @@
       </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="B8">
         <v>428</v>
       </c>
@@ -7294,7 +8900,7 @@
       </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -7325,7 +8931,7 @@
       </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="B10" s="6">
         <v>429</v>
       </c>
@@ -7356,7 +8962,7 @@
       </c>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -7387,7 +8993,7 @@
       </c>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="B12">
         <v>468</v>
       </c>
@@ -7416,7 +9022,7 @@
       </c>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -7447,7 +9053,7 @@
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="B14" s="6">
         <v>448</v>
       </c>
@@ -7481,135 +9087,467 @@
       </c>
       <c r="Q14" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
+      <c r="I17" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H18" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I19" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="I20" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="I21" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I22" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="I23" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="I24" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="B25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
+      <c r="I25" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B26" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" t="s">
+      <c r="I26" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="B27" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" t="s">
         <v>110</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="B28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="I29" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>116</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I30" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="B31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I31" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>37</v>
       </c>
@@ -7619,285 +9557,1114 @@
       <c r="E32">
         <v>317</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33">
         <v>314</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>122</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H36">
         <v>313</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E37">
         <v>312</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="I38" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B39" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="H39">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" t="s">
         <v>131</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="B41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
         <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s">
-        <v>135</v>
       </c>
       <c r="F41">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H41" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="I42" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="B43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="I44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>140</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="I46" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I47" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>38</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="I48" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="L49" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="B50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>564</v>
+      </c>
+      <c r="L50" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="B51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="B52" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="L52" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="B53" s="5"/>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="B54" s="5"/>
+      <c r="I54" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="B55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="B56" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="I56" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="B57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="5" t="s">
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="B58" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="I58" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="L58" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B59" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="I59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="B60" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="I60" t="s">
+        <v>119</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="L60" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="B61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="L61" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="B62" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" s="5"/>
+      <c r="I63" t="s">
+        <v>122</v>
+      </c>
+      <c r="J63" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="L63" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
         <v>163</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>164</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="L64" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
       <c r="B65" s="6"/>
+      <c r="I65" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="I66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="L66" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="I67" t="s">
+        <v>132</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="I68" t="s">
+        <v>135</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="L68" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="I69" t="s">
+        <v>137</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="I70" t="s">
+        <v>139</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="L70" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="I71" t="s">
+        <v>131</v>
+      </c>
+      <c r="J71" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>590</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="I72" t="s">
+        <v>134</v>
+      </c>
+      <c r="J72" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="I73" t="s">
+        <v>136</v>
+      </c>
+      <c r="J73" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K73" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="I74" t="s">
+        <v>138</v>
+      </c>
+      <c r="J74" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="L74" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="I75" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="K75" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="L75" s="34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="I77" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="L77" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="I78" t="s">
+        <v>142</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="L78" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="I79" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K79" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="L79" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="I80" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="K80" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="L80" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="9:12">
+      <c r="I81" t="s">
+        <v>146</v>
+      </c>
+      <c r="J81" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K81" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="L81" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82" spans="9:12">
+      <c r="I82" t="s">
+        <v>150</v>
+      </c>
+      <c r="J82" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="L82" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="9:12">
+      <c r="I83" t="s">
+        <v>151</v>
+      </c>
+      <c r="J83" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="L83" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="84" spans="9:12">
+      <c r="I84" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="K84" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="L84" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="9:12">
+      <c r="I85" t="s">
+        <v>155</v>
+      </c>
+      <c r="J85" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="L85" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="9:12">
+      <c r="I86" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K86" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="L86" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="87" spans="9:12">
+      <c r="I87" t="s">
+        <v>159</v>
+      </c>
+      <c r="J87" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="K87" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="L87" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="9:12">
+      <c r="I88" t="s">
+        <v>161</v>
+      </c>
+      <c r="J88" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="K88" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="L88" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="9:12">
+      <c r="I89" t="s">
+        <v>162</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="L89" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="90" spans="9:12">
+      <c r="I90" t="s">
+        <v>163</v>
+      </c>
+      <c r="J90" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="L90" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="91" spans="9:12">
+      <c r="I91" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="L91" s="34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="9:12">
+      <c r="J92" s="39"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="34"/>
+    </row>
+    <row r="93" spans="9:12">
+      <c r="I93" s="41"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7905,244 +10672,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="B4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>232</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>236</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>238</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5">
         <v>242</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <v>248</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5">
         <v>252</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M5">
         <v>254</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O5">
         <v>258</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>233</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>237</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>239</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6">
         <v>243</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6">
         <v>249</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6">
         <v>253</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M6">
         <v>255</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O6">
         <v>259</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>234</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>290</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>240</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8">
         <v>292</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I8">
         <v>250</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K8">
         <v>294</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M8">
         <v>256</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O8">
         <v>296</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9">
         <v>291</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9">
         <v>241</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9">
         <v>293</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I9">
         <v>251</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K9">
         <v>295</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>257</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O9">
         <v>297</v>
       </c>
       <c r="P9" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" t="s">
         <v>175</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" t="s">
         <v>177</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="N11" t="s">
         <v>179</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -8168,7 +10938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>700</v>
       </c>
@@ -8179,7 +10949,7 @@
         <v>702</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14">
         <v>710</v>
@@ -8191,7 +10961,7 @@
         <v>712</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14">
         <v>720</v>
@@ -8203,7 +10973,7 @@
         <v>722</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M14">
         <v>730</v>
@@ -8215,36 +10985,36 @@
         <v>732</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>701</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>711</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I16">
         <v>721</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M16">
         <v>731</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>318</v>
       </c>
@@ -8294,7 +11064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="C19" s="5" t="s">
         <v>16</v>
       </c>
@@ -8308,7 +11078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="C20">
         <v>699</v>
       </c>
@@ -8322,33 +11092,33 @@
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J21" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N21" t="s">
-        <v>184</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
@@ -8374,90 +11144,90 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>703</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24">
         <v>704</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24">
         <v>713</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24">
         <v>714</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24">
         <v>723</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K24">
         <v>724</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M24">
         <v>733</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O24">
         <v>734</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="D25" s="6"/>
       <c r="H25" s="6"/>
       <c r="L25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>705</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E26">
         <v>715</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I26">
         <v>725</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M26">
         <v>735</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P26" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>326</v>
       </c>
@@ -8507,7 +11277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="C29" s="5" t="s">
         <v>16</v>
       </c>
@@ -8521,7 +11291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="C30">
         <v>706</v>
       </c>
@@ -8535,12 +11305,12 @@
         <v>727</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="I32" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
       <c r="I33">
         <v>740</v>
       </c>
@@ -8560,867 +11330,867 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
       </c>
       <c r="D2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
         <v>199</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>209</v>
       </c>
-      <c r="B6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>213</v>
-      </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>214</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="J11" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
         <v>216</v>
       </c>
-      <c r="B11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
         <v>218</v>
       </c>
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" t="s">
         <v>220</v>
       </c>
-      <c r="B13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" t="s">
         <v>222</v>
       </c>
-      <c r="B14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>247</v>
       </c>
-      <c r="B34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>248</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>250</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>252</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>254</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>256</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>258</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>265</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>267</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>269</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>275</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>277</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>279</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>282</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>284</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>286</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>288</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>290</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>292</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>294</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>296</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>298</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>300</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>307</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>309</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>311</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>315</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>317</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>319</v>
       </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>321</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>323</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>325</v>
       </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>327</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>329</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>331</v>
       </c>
-      <c r="B84" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>333</v>
       </c>
-      <c r="B85" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>335</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>337</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>342</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
         <v>344</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
         <v>346</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>348</v>
       </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
         <v>350</v>
       </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
         <v>352</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>354</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>356</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>358</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>360</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>362</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
         <v>364</v>
       </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>369</v>
       </c>
-      <c r="B106" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>371</v>
-      </c>
-      <c r="B107" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/FT部件指示说明0311.xlsx
+++ b/Documents/FT部件指示说明0311.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A113C-8234-4F82-BE94-9C2C02EB3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D180E22-6866-45DA-A2A1-FA80D06AEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上料" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="812">
   <si>
     <t>上料工位：</t>
   </si>
@@ -1181,12 +1181,6 @@
   <si>
     <t>PlcInIO[425]</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlcInIO[446]</t>
-  </si>
-  <si>
-    <t>PlcInIO[447]</t>
   </si>
   <si>
     <t>回原点</t>
@@ -2164,6 +2158,805 @@
   </si>
   <si>
     <t>单目SK相机位置选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[310]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[311]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[552]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[232]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[233]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[234]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[235]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[236]</t>
+  </si>
+  <si>
+    <t>PlcInIO[237]</t>
+  </si>
+  <si>
+    <t>PlcInIO[290]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[291]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[39]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[700]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[701]</t>
+  </si>
+  <si>
+    <t>PlcInID[702]</t>
+  </si>
+  <si>
+    <t>PlcInIO[318]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[319]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[699]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[13]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑体1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[43]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[703]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[704]</t>
+  </si>
+  <si>
+    <t>PlcInIO[705]</t>
+  </si>
+  <si>
+    <t>PlcInIO[326]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[327]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[706]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1压盖压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1压盖打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1工装上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1工装下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1翻转90°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1翻转0°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1一键压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1一键开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1上料位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1翻转位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1测试位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1黑体1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1高温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1低温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1维修位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1平移正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1平移负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1黑体正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1黑体负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1平移1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[238]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[239]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[240]</t>
+  </si>
+  <si>
+    <t>PlcInIO[241]</t>
+  </si>
+  <si>
+    <t>PlcInIO[242]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[243]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[292]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[293]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[40]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[710]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[711]</t>
+  </si>
+  <si>
+    <t>PlcInID[712]</t>
+  </si>
+  <si>
+    <t>PlcInIO[320]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[321]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[709]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[14]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[44]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[713]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[714]</t>
+  </si>
+  <si>
+    <t>PlcInIO[715]</t>
+  </si>
+  <si>
+    <t>PlcInIO[716]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[328]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[329]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2压盖压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2压盖打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2工装上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2工装下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2翻转90°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2翻转0°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2一键压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2一键开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2平移2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2上料位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2翻转位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2测试位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2平移正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2平移负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2高温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2低温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2维修位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2黑体正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2黑体负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[248]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[249]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[250]</t>
+  </si>
+  <si>
+    <t>PlcInIO[251]</t>
+  </si>
+  <si>
+    <t>PlcInIO[252]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[253]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[294]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[295]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[11]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[41]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[720]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[721]</t>
+  </si>
+  <si>
+    <t>PlcInID[722]</t>
+  </si>
+  <si>
+    <t>PlcInIO[322]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[323]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[719]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[45]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[723]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[724]</t>
+  </si>
+  <si>
+    <t>PlcInIO[725]</t>
+  </si>
+  <si>
+    <t>PlcInIO[330]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[331]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[726]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3压盖压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3压盖打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3工装上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3工装下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3翻转90°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3翻转0°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3一键压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3一键开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3平移3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3上料位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3翻转位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3测试位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3平移正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3平移负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2黑体2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3黑体3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3高温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3低温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3维修位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3黑体正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3黑体负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3黑体回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2黑体回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1黑体回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[12]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcOutLocation[16]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[254]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[255]</t>
+  </si>
+  <si>
+    <t>PlcInIO[256]</t>
+  </si>
+  <si>
+    <t>PlcInIO[257]</t>
+  </si>
+  <si>
+    <t>PlcInIO[259]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[258]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[296]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[297]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[42]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[730]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[731]</t>
+  </si>
+  <si>
+    <t>PlcInID[732]</t>
+  </si>
+  <si>
+    <t>PlcInIO[324]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[325]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[729]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[46]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[733]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[734]</t>
+  </si>
+  <si>
+    <t>PlcInIO[735]</t>
+  </si>
+  <si>
+    <t>黑体2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑体3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑体4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[332]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[333]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInIO[727]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平移4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4压盖压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4压盖打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4工装上升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4工装下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4翻转90°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4翻转0°</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4一键压合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4一键开启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4上料位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4平移4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4翻转位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4测试位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4平移正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4平移负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4黑体4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4高温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4低温位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4维修位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4黑体正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4黑体负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位1黑体停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位2黑体停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位3黑体停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4黑体停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位4黑体回原点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2418,7 +3211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2518,31 +3311,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7949,7 +8727,7 @@
   <dimension ref="C1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7988,13 +8766,13 @@
         <v>376</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="3:20">
@@ -8008,13 +8786,13 @@
         <v>377</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="3:20">
@@ -8026,13 +8804,13 @@
         <v>378</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="3:20">
@@ -8051,16 +8829,16 @@
       <c r="M5" s="6"/>
       <c r="O5" s="6"/>
       <c r="Q5" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="R5" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="R5" s="27" t="s">
-        <v>386</v>
-      </c>
       <c r="S5" s="27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="3:20">
@@ -8078,16 +8856,16 @@
       </c>
       <c r="O6" s="6"/>
       <c r="Q6" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="R6" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="R6" s="27" t="s">
-        <v>387</v>
-      </c>
       <c r="S6" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="T6" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="3:20" ht="12.95" customHeight="1">
@@ -8107,16 +8885,16 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="Q7" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="3:20">
@@ -8136,16 +8914,16 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="Q8" s="27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="3:20">
@@ -8166,16 +8944,16 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="Q9" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="3:20">
@@ -8199,16 +8977,16 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="Q11" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="3:20">
@@ -8219,16 +8997,16 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="Q12" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="3:20">
@@ -8236,16 +9014,16 @@
         <v>7</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="3:20">
@@ -8253,16 +9031,16 @@
         <v>53</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="3:20">
@@ -8279,16 +9057,16 @@
         <v>9</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="3:20">
@@ -8305,16 +9083,16 @@
         <v>218</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="3:20">
@@ -8331,16 +9109,16 @@
         <v>15</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="3:20">
@@ -8357,16 +9135,16 @@
         <v>219</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="3:20">
@@ -8384,16 +9162,16 @@
         <v>27</v>
       </c>
       <c r="Q19" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="R19" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="R19" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="S19" s="27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="3:20">
@@ -8410,16 +9188,16 @@
         <v>211</v>
       </c>
       <c r="Q20" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="R20" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="R20" s="27" t="s">
-        <v>424</v>
-      </c>
       <c r="S20" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T20" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="3:20" ht="33.950000000000003" customHeight="1">
@@ -8439,30 +9217,30 @@
         <v>221</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S22" s="29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="3:20">
       <c r="Q23" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="R23" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="3:20">
@@ -8470,16 +9248,16 @@
         <v>75</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="3:20">
@@ -8487,16 +9265,16 @@
         <v>7</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>379</v>
+        <v>606</v>
       </c>
       <c r="R25" s="29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S25" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="3:20">
@@ -8504,16 +9282,16 @@
         <v>35</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T26" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="3:20">
@@ -8524,16 +9302,16 @@
         <v>77</v>
       </c>
       <c r="Q27" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R27" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="3:20">
@@ -8544,16 +9322,16 @@
         <v>408</v>
       </c>
       <c r="Q28" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="S28" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="R28" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>432</v>
-      </c>
       <c r="T28" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="3:20">
@@ -8576,16 +9354,16 @@
         <v>311</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R30" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="3:20" ht="15">
@@ -8593,156 +9371,156 @@
         <v>409</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="3:20" ht="15">
       <c r="Q32" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="S32" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="T32" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="17:20">
       <c r="Q33" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S33" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="17:20">
       <c r="Q34" s="27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T34" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="17:20">
       <c r="Q35" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R35" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S35" s="28" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T35" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="17:20">
       <c r="Q36" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="R36" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S36" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="17:20">
       <c r="Q37" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S37" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="17:20">
       <c r="Q38" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="R38" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="T38" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="17:20">
       <c r="Q39" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="R39" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S39" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T39" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="17:20">
       <c r="Q40" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R40" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="S40" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T40" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="17:20">
       <c r="Q41" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="R41" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S41" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T41" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -8757,8 +9535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8829,7 +9607,7 @@
     <row r="6" spans="1:17">
       <c r="A6" s="8"/>
       <c r="B6" s="30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>85</v>
@@ -9092,10 +9870,10 @@
         <v>372</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L17" s="26" t="s">
         <v>374</v>
@@ -9109,31 +9887,31 @@
         <v>89</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -9144,28 +9922,28 @@
         <v>7</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P19" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -9176,28 +9954,28 @@
         <v>91</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -9208,28 +9986,28 @@
         <v>93</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P21" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -9240,28 +10018,28 @@
         <v>48</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -9272,28 +10050,28 @@
         <v>96</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -9304,28 +10082,28 @@
         <v>98</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P24" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -9342,28 +10120,28 @@
         <v>102</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P25" s="27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -9380,28 +10158,28 @@
         <v>106</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -9418,28 +10196,28 @@
         <v>110</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -9459,28 +10237,28 @@
     </row>
     <row r="29" spans="1:17">
       <c r="I29" s="27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -9491,28 +10269,28 @@
         <v>16</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -9523,28 +10301,28 @@
         <v>117</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -9558,28 +10336,28 @@
         <v>317</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P32" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -9593,28 +10371,28 @@
         <v>314</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P33" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -9625,28 +10403,28 @@
         <v>93</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -9657,28 +10435,28 @@
         <v>96</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -9692,28 +10470,28 @@
         <v>313</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -9727,28 +10505,28 @@
         <v>312</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -9759,28 +10537,28 @@
         <v>125</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N38" s="29" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -9804,8 +10582,8 @@
       <c r="C40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D40" t="s">
-        <v>131</v>
+      <c r="D40" s="32" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -9825,19 +10603,19 @@
         <v>315</v>
       </c>
       <c r="H41" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="I41" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="I41" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>403</v>
+      <c r="J41" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -9854,16 +10632,16 @@
         <v>136</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="J42" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="J42" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>403</v>
+      <c r="K42" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -9882,28 +10660,28 @@
       <c r="I43" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="L43" s="34" t="s">
-        <v>403</v>
+      <c r="K43" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="I44" t="s">
         <v>94</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="J44" t="s">
         <v>48</v>
       </c>
-      <c r="K44" s="33" t="s">
-        <v>558</v>
-      </c>
-      <c r="L44" s="34" t="s">
-        <v>403</v>
+      <c r="K44" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -9916,28 +10694,28 @@
       <c r="I45" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" t="s">
         <v>96</v>
       </c>
-      <c r="K45" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>403</v>
+      <c r="K45" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="I46" t="s">
         <v>97</v>
       </c>
-      <c r="J46" s="35" t="s">
+      <c r="J46" t="s">
         <v>98</v>
       </c>
-      <c r="K46" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="L46" s="34" t="s">
-        <v>403</v>
+      <c r="K46" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -9950,14 +10728,14 @@
       <c r="I47" t="s">
         <v>99</v>
       </c>
-      <c r="J47" s="33" t="s">
-        <v>607</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>403</v>
+      <c r="J47" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -9970,14 +10748,14 @@
       <c r="I48" t="s">
         <v>103</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" t="s">
         <v>104</v>
       </c>
-      <c r="K48" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="L48" s="34" t="s">
-        <v>403</v>
+      <c r="K48" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9990,14 +10768,14 @@
       <c r="I49" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="35" t="s">
+      <c r="J49" t="s">
         <v>108</v>
       </c>
-      <c r="K49" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="L49" s="34" t="s">
-        <v>403</v>
+      <c r="K49" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10010,14 +10788,14 @@
       <c r="I50" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="35" t="s">
+      <c r="J50" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="L50" s="34" t="s">
-        <v>403</v>
+      <c r="K50" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10030,14 +10808,14 @@
       <c r="I51" t="s">
         <v>115</v>
       </c>
-      <c r="J51" s="35" t="s">
+      <c r="J51" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>403</v>
+      <c r="K51" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10050,14 +10828,14 @@
       <c r="I52" t="s">
         <v>102</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="J52" t="s">
         <v>101</v>
       </c>
-      <c r="K52" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>403</v>
+      <c r="K52" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10068,14 +10846,14 @@
       <c r="I53" t="s">
         <v>106</v>
       </c>
-      <c r="J53" s="35" t="s">
+      <c r="J53" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>403</v>
+      <c r="K53" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10086,14 +10864,14 @@
       <c r="I54" t="s">
         <v>110</v>
       </c>
-      <c r="J54" s="35" t="s">
+      <c r="J54" t="s">
         <v>109</v>
       </c>
-      <c r="K54" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="L54" s="34" t="s">
-        <v>403</v>
+      <c r="K54" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10106,14 +10884,14 @@
       <c r="I55" t="s">
         <v>114</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" t="s">
         <v>113</v>
       </c>
-      <c r="K55" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="L55" s="34" t="s">
-        <v>403</v>
+      <c r="K55" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10124,16 +10902,16 @@
         <v>152</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="J56" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="L56" s="34" t="s">
-        <v>404</v>
+        <v>568</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -10152,16 +10930,16 @@
         <v>156</v>
       </c>
       <c r="I58" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="J58" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="J58" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>403</v>
+      <c r="K58" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10174,14 +10952,14 @@
       <c r="I59" t="s">
         <v>118</v>
       </c>
-      <c r="J59" s="35" t="s">
+      <c r="J59" t="s">
         <v>91</v>
       </c>
-      <c r="K59" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="L59" s="34" t="s">
-        <v>403</v>
+      <c r="K59" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -10194,14 +10972,14 @@
       <c r="I60" t="s">
         <v>119</v>
       </c>
-      <c r="J60" s="35" t="s">
+      <c r="J60" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="L60" s="34" t="s">
-        <v>403</v>
+      <c r="K60" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10214,14 +10992,14 @@
       <c r="I61" t="s">
         <v>120</v>
       </c>
-      <c r="J61" s="35" t="s">
+      <c r="J61" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="L61" s="34" t="s">
-        <v>403</v>
+      <c r="K61" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10234,14 +11012,14 @@
       <c r="I62" t="s">
         <v>121</v>
       </c>
-      <c r="J62" s="35" t="s">
+      <c r="J62" t="s">
         <v>98</v>
       </c>
-      <c r="K62" s="33" t="s">
-        <v>582</v>
-      </c>
-      <c r="L62" s="34" t="s">
-        <v>403</v>
+      <c r="K62" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -10249,14 +11027,14 @@
       <c r="I63" t="s">
         <v>122</v>
       </c>
-      <c r="J63" s="35" t="s">
+      <c r="J63" t="s">
         <v>123</v>
       </c>
-      <c r="K63" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="L63" s="34" t="s">
-        <v>403</v>
+      <c r="K63" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10269,14 +11047,14 @@
       <c r="I64" t="s">
         <v>124</v>
       </c>
-      <c r="J64" s="35" t="s">
+      <c r="J64" t="s">
         <v>125</v>
       </c>
-      <c r="K64" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="L64" s="34" t="s">
-        <v>403</v>
+      <c r="K64" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="2:12">
@@ -10284,381 +11062,375 @@
       <c r="I65" t="s">
         <v>126</v>
       </c>
-      <c r="J65" s="35" t="s">
+      <c r="J65" t="s">
         <v>127</v>
       </c>
-      <c r="K65" s="33" t="s">
-        <v>585</v>
-      </c>
-      <c r="L65" s="34" t="s">
-        <v>403</v>
+      <c r="K65" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="2:12">
       <c r="I66" t="s">
         <v>128</v>
       </c>
-      <c r="J66" s="35" t="s">
+      <c r="J66" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="L66" s="34" t="s">
-        <v>403</v>
+      <c r="K66" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="2:12">
       <c r="I67" t="s">
         <v>132</v>
       </c>
-      <c r="J67" s="35" t="s">
+      <c r="J67" t="s">
         <v>133</v>
       </c>
-      <c r="K67" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="L67" s="34" t="s">
-        <v>403</v>
+      <c r="K67" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="2:12">
       <c r="I68" t="s">
         <v>135</v>
       </c>
-      <c r="J68" s="35" t="s">
+      <c r="J68" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="L68" s="34" t="s">
-        <v>403</v>
+      <c r="K68" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="2:12">
       <c r="I69" t="s">
         <v>137</v>
       </c>
-      <c r="J69" s="35" t="s">
+      <c r="J69" t="s">
         <v>108</v>
       </c>
-      <c r="K69" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="L69" s="34" t="s">
-        <v>403</v>
+      <c r="K69" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="2:12">
       <c r="I70" t="s">
         <v>139</v>
       </c>
-      <c r="J70" s="35" t="s">
+      <c r="J70" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="L70" s="34" t="s">
-        <v>403</v>
+      <c r="K70" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="I71" t="s">
         <v>131</v>
       </c>
-      <c r="J71" s="35" t="s">
+      <c r="J71" t="s">
         <v>130</v>
       </c>
-      <c r="K71" s="33" t="s">
-        <v>590</v>
-      </c>
-      <c r="L71" s="34" t="s">
-        <v>403</v>
+      <c r="K71" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="2:12">
       <c r="I72" t="s">
         <v>134</v>
       </c>
-      <c r="J72" s="35" t="s">
+      <c r="J72" t="s">
         <v>133</v>
       </c>
-      <c r="K72" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="L72" s="34" t="s">
-        <v>403</v>
+      <c r="K72" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="2:12">
       <c r="I73" t="s">
         <v>136</v>
       </c>
-      <c r="J73" s="35" t="s">
+      <c r="J73" t="s">
         <v>109</v>
       </c>
-      <c r="K73" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="L73" s="34" t="s">
-        <v>403</v>
+      <c r="K73" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="I74" t="s">
         <v>138</v>
       </c>
-      <c r="J74" s="35" t="s">
+      <c r="J74" t="s">
         <v>113</v>
       </c>
-      <c r="K74" s="33" t="s">
-        <v>592</v>
-      </c>
-      <c r="L74" s="34" t="s">
-        <v>403</v>
+      <c r="K74" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="2:12">
       <c r="I75" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="K75" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="L75" s="34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
+        <v>571</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="77" spans="2:12">
       <c r="I77" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="J77" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="J77" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>403</v>
+      <c r="K77" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="2:12">
       <c r="I78" t="s">
         <v>142</v>
       </c>
-      <c r="J78" s="39" t="s">
+      <c r="J78" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="40" t="s">
-        <v>594</v>
-      </c>
-      <c r="L78" s="34" t="s">
-        <v>403</v>
+      <c r="K78" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="2:12">
       <c r="I79" t="s">
         <v>143</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" t="s">
         <v>93</v>
       </c>
-      <c r="K79" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="L79" s="34" t="s">
-        <v>403</v>
+      <c r="K79" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="L79" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="2:12">
       <c r="I80" t="s">
         <v>144</v>
       </c>
-      <c r="J80" s="39" t="s">
+      <c r="J80" t="s">
         <v>145</v>
       </c>
-      <c r="K80" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="L80" s="34" t="s">
-        <v>403</v>
+      <c r="K80" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="9:12">
       <c r="I81" t="s">
         <v>146</v>
       </c>
-      <c r="J81" s="39" t="s">
+      <c r="J81" t="s">
         <v>147</v>
       </c>
-      <c r="K81" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="L81" s="34" t="s">
-        <v>403</v>
+      <c r="K81" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="9:12">
       <c r="I82" t="s">
         <v>150</v>
       </c>
-      <c r="J82" s="39" t="s">
+      <c r="J82" t="s">
         <v>123</v>
       </c>
-      <c r="K82" s="40" t="s">
-        <v>598</v>
-      </c>
-      <c r="L82" s="34" t="s">
-        <v>403</v>
+      <c r="K82" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="9:12">
       <c r="I83" t="s">
         <v>151</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" t="s">
         <v>152</v>
       </c>
-      <c r="K83" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="L83" s="34" t="s">
-        <v>403</v>
+      <c r="K83" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="L83" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="9:12">
       <c r="I84" t="s">
         <v>153</v>
       </c>
-      <c r="J84" s="39" t="s">
+      <c r="J84" t="s">
         <v>154</v>
       </c>
-      <c r="K84" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="L84" s="34" t="s">
-        <v>403</v>
+      <c r="K84" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="L84" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="9:12">
       <c r="I85" t="s">
         <v>155</v>
       </c>
-      <c r="J85" s="39" t="s">
+      <c r="J85" t="s">
         <v>156</v>
       </c>
-      <c r="K85" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="L85" s="34" t="s">
-        <v>403</v>
+      <c r="K85" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="9:12">
       <c r="I86" t="s">
         <v>157</v>
       </c>
-      <c r="J86" s="39" t="s">
+      <c r="J86" t="s">
         <v>158</v>
       </c>
-      <c r="K86" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="L86" s="34" t="s">
-        <v>403</v>
+      <c r="K86" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="L86" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="9:12">
       <c r="I87" t="s">
         <v>159</v>
       </c>
-      <c r="J87" s="39" t="s">
+      <c r="J87" t="s">
         <v>160</v>
       </c>
-      <c r="K87" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="L87" s="34" t="s">
-        <v>403</v>
+      <c r="K87" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="L87" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="9:12">
       <c r="I88" t="s">
         <v>161</v>
       </c>
-      <c r="J88" s="39" t="s">
+      <c r="J88" t="s">
         <v>96</v>
       </c>
-      <c r="K88" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="L88" s="34" t="s">
-        <v>403</v>
+      <c r="K88" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="L88" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="9:12">
       <c r="I89" t="s">
         <v>162</v>
       </c>
-      <c r="J89" s="39" t="s">
+      <c r="J89" t="s">
         <v>98</v>
       </c>
-      <c r="K89" s="40" t="s">
-        <v>605</v>
-      </c>
-      <c r="L89" s="34" t="s">
-        <v>403</v>
+      <c r="K89" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="L89" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="9:12">
       <c r="I90" t="s">
         <v>163</v>
       </c>
-      <c r="J90" s="39" t="s">
+      <c r="J90" t="s">
         <v>16</v>
       </c>
-      <c r="K90" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="L90" s="34" t="s">
-        <v>403</v>
+      <c r="K90" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="L90" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="9:12">
       <c r="I91" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="J91" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="K91" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="L91" s="34" t="s">
-        <v>404</v>
+        <v>574</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="L91" s="27" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="9:12">
-      <c r="J92" s="39"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="34"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="27"/>
     </row>
     <row r="93" spans="9:12">
-      <c r="I93" s="41"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="34"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10670,15 +11442,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:P33"/>
+  <dimension ref="A4:Q58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:16">
@@ -11310,9 +12095,1259 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="2:17">
       <c r="I33">
         <v>740</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>730</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N36" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>686</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N37" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="O37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>641</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>687</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>732</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N38" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="O38" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>688</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N39" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="O39" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>709</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N40" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>644</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>645</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N42" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="O42" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>668</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="L43" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="O43" s="35" t="s">
+        <v>784</v>
+      </c>
+      <c r="P43" s="35" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>693</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>738</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N44" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="P44" s="35" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>694</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N45" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>671</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>695</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N46" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>696</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>717</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>741</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="O47" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>742</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N48" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="O48" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="P48" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>743</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N49" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="P49" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>650</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="L50" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N50" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="O50" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="P50" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>745</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="L51" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>756</v>
+      </c>
+      <c r="O51" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="P51" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J52" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="L52" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="O52" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="P52" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="K53" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="O53" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="P53" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" s="32" t="s">
+        <v>724</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="L54" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="O54" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="P54" s="35" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="L55" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="O55" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="P55" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="P56" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="O57" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="P57" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>808</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="J58" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="L58" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="N58" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="P58" s="35" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/FT部件指示说明0311.xlsx
+++ b/Documents/FT部件指示说明0311.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tstdt\source\repos\FTV2\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D180E22-6866-45DA-A2A1-FA80D06AEE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E32A10-DEF2-4470-B04D-830816EA2B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="421" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上料" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="813">
   <si>
     <t>上料工位：</t>
   </si>
@@ -2957,6 +2957,10 @@
   </si>
   <si>
     <t>工位4黑体回原点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlcInID[30]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3034,7 +3038,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3068,6 +3072,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3211,7 +3221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3246,9 +3256,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -3311,16 +3318,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8102,28 +8103,28 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="2" t="s">
@@ -8138,19 +8139,19 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="22" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="22" t="s">
+      <c r="M5" s="19"/>
+      <c r="N5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="6" t="s">
@@ -8168,19 +8169,19 @@
       <c r="H6" s="6">
         <v>402</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22">
         <v>206</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22">
         <v>404</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="5" t="s">
@@ -8198,19 +8199,19 @@
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="6">
@@ -8232,19 +8233,19 @@
       <c r="H8" s="6">
         <v>309</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22">
         <v>207</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23" t="s">
+      <c r="M8" s="22"/>
+      <c r="N8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="6"/>
@@ -8258,17 +8259,17 @@
         <v>403</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="6"/>
@@ -8278,19 +8279,19 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="6"/>
@@ -8300,15 +8301,15 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
         <v>405</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="1" t="s">
@@ -8319,22 +8320,22 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="25" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="20"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="5" t="s">
@@ -8350,13 +8351,13 @@
         <v>51</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="5" t="s">
@@ -8372,17 +8373,17 @@
       <c r="H14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="19"/>
+      <c r="J14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24" t="s">
+      <c r="K14" s="22"/>
+      <c r="L14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
@@ -8398,17 +8399,17 @@
       <c r="H15" s="6">
         <v>266</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="23">
+      <c r="I15" s="19"/>
+      <c r="J15" s="22">
         <v>268</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23">
+      <c r="K15" s="22"/>
+      <c r="L15" s="22">
         <v>270</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="5" t="s">
@@ -8425,17 +8426,17 @@
       <c r="H16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="24" t="s">
+      <c r="I16" s="19"/>
+      <c r="J16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="6">
@@ -8452,17 +8453,17 @@
       <c r="H17" s="6">
         <v>267</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19">
         <v>269</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19">
         <v>271</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="5" t="s">
@@ -8479,13 +8480,13 @@
       <c r="H18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19">
@@ -8672,7 +8673,7 @@
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -8692,7 +8693,7 @@
       <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -8745,16 +8746,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:20">
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8762,16 +8763,16 @@
       <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8782,16 +8783,16 @@
       <c r="M3" s="1"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8800,16 +8801,16 @@
         <v>52</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8828,16 +8829,16 @@
       </c>
       <c r="M5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8855,16 +8856,16 @@
         <v>214</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="S6" s="27" t="s">
+      <c r="S6" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8884,16 +8885,16 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="S7" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8913,16 +8914,16 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8943,16 +8944,16 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="26" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8970,22 +8971,22 @@
       <c r="I10">
         <v>209</v>
       </c>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="3:20">
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8996,16 +8997,16 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="S12" s="27" t="s">
+      <c r="S12" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9013,16 +9014,16 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="R13" s="27" t="s">
+      <c r="R13" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9030,16 +9031,16 @@
       <c r="C14">
         <v>53</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="R14" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="T14" s="27" t="s">
+      <c r="T14" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9056,16 +9057,16 @@
       <c r="I15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="R15" s="27" t="s">
+      <c r="R15" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="T15" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9082,16 +9083,16 @@
       <c r="I16">
         <v>218</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="R16" s="27" t="s">
+      <c r="R16" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="S16" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="T16" s="27" t="s">
+      <c r="T16" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9108,16 +9109,16 @@
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="R17" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9134,16 +9135,16 @@
       <c r="I18">
         <v>219</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="R18" s="27" t="s">
+      <c r="R18" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="S18" s="27" t="s">
+      <c r="S18" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="T18" s="27" t="s">
+      <c r="T18" s="26" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9161,16 +9162,16 @@
       <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="R19" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="S19" s="27" t="s">
+      <c r="S19" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="T19" s="27" t="s">
+      <c r="T19" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9187,27 +9188,27 @@
       <c r="I20">
         <v>211</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="R20" s="27" t="s">
+      <c r="R20" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="S20" s="27" t="s">
+      <c r="S20" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="T20" s="27" t="s">
+      <c r="T20" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="21" spans="3:20" ht="33.950000000000003" customHeight="1">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="27"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="3:20">
       <c r="C22">
@@ -9216,30 +9217,30 @@
       <c r="E22">
         <v>221</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="R22" s="29" t="s">
+      <c r="R22" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="T22" s="29" t="s">
+      <c r="T22" s="28" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="S23" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="28" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9247,16 +9248,16 @@
       <c r="P24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="R24" s="29" t="s">
+      <c r="R24" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="S24" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="T24" s="29" t="s">
+      <c r="T24" s="28" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9264,16 +9265,16 @@
       <c r="N25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="Q25" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="R25" s="29" t="s">
+      <c r="R25" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="S25" s="29" t="s">
+      <c r="S25" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="28" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9281,16 +9282,16 @@
       <c r="N26">
         <v>35</v>
       </c>
-      <c r="Q26" s="29" t="s">
+      <c r="Q26" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="R26" s="29" t="s">
+      <c r="R26" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="S26" s="29" t="s">
+      <c r="S26" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="T26" s="28" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9301,16 +9302,16 @@
       <c r="P27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q27" s="29" t="s">
+      <c r="Q27" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="R27" s="29" t="s">
+      <c r="R27" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="T27" s="29" t="s">
+      <c r="T27" s="28" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9321,16 +9322,16 @@
       <c r="P28">
         <v>408</v>
       </c>
-      <c r="Q28" s="29" t="s">
+      <c r="Q28" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="28" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9341,7 +9342,7 @@
       <c r="P29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="T29" s="27"/>
+      <c r="T29" s="26"/>
     </row>
     <row r="30" spans="3:20" ht="15">
       <c r="N30">
@@ -9353,16 +9354,16 @@
       <c r="P30">
         <v>311</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="S30" s="28" t="s">
+      <c r="S30" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="T30" s="27" t="s">
+      <c r="T30" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9370,156 +9371,156 @@
       <c r="O31">
         <v>409</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="Q31" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="R31" s="27" t="s">
+      <c r="R31" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="S31" s="28" t="s">
+      <c r="S31" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="T31" s="27" t="s">
+      <c r="T31" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="32" spans="3:20" ht="15">
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="R32" s="27" t="s">
+      <c r="R32" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="S32" s="28" t="s">
+      <c r="S32" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="T32" s="27" t="s">
+      <c r="T32" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" spans="17:20">
-      <c r="Q33" s="27" t="s">
+      <c r="Q33" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="R33" s="27" t="s">
+      <c r="R33" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="S33" s="28" t="s">
+      <c r="S33" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="T33" s="27" t="s">
+      <c r="T33" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="34" spans="17:20">
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="R34" s="27" t="s">
+      <c r="R34" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="S34" s="28" t="s">
+      <c r="S34" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="T34" s="27" t="s">
+      <c r="T34" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="35" spans="17:20">
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="R35" s="27" t="s">
+      <c r="R35" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="S35" s="28" t="s">
+      <c r="S35" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="T35" s="27" t="s">
+      <c r="T35" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="36" spans="17:20">
-      <c r="Q36" s="27" t="s">
+      <c r="Q36" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="R36" s="27" t="s">
+      <c r="R36" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="S36" s="28" t="s">
+      <c r="S36" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="T36" s="27" t="s">
+      <c r="T36" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="37" spans="17:20">
-      <c r="Q37" s="27" t="s">
+      <c r="Q37" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="R37" s="27" t="s">
+      <c r="R37" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="S37" s="28" t="s">
+      <c r="S37" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="T37" s="27" t="s">
+      <c r="T37" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="38" spans="17:20">
-      <c r="Q38" s="27" t="s">
+      <c r="Q38" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="R38" s="27" t="s">
+      <c r="R38" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="S38" s="28" t="s">
+      <c r="S38" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="T38" s="27" t="s">
+      <c r="T38" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="39" spans="17:20">
-      <c r="Q39" s="27" t="s">
+      <c r="Q39" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="R39" s="27" t="s">
+      <c r="R39" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="S39" s="28" t="s">
+      <c r="S39" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="T39" s="27" t="s">
+      <c r="T39" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="40" spans="17:20">
-      <c r="Q40" s="27" t="s">
+      <c r="Q40" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="R40" s="27" t="s">
+      <c r="R40" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="S40" s="28" t="s">
+      <c r="S40" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="T40" s="27" t="s">
+      <c r="T40" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="41" spans="17:20">
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="R41" s="27" t="s">
+      <c r="R41" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="S41" s="28" t="s">
+      <c r="S41" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="T41" s="27" t="s">
+      <c r="T41" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9535,8 +9536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41:L56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9569,7 +9570,7 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17">
       <c r="C3" s="2" t="s">
@@ -9584,10 +9585,10 @@
       <c r="P3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="15"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="2" t="s">
@@ -9602,11 +9603,11 @@
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="8"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>466</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -9618,7 +9619,7 @@
       <c r="N6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="5" t="s">
@@ -9647,7 +9648,7 @@
       <c r="P7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8">
@@ -9676,7 +9677,7 @@
       <c r="P8" s="6">
         <v>282</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="5" t="s">
@@ -9707,7 +9708,7 @@
       <c r="P9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="6">
@@ -9738,7 +9739,7 @@
       <c r="P10" s="6">
         <v>283</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="5" t="s">
@@ -9769,7 +9770,7 @@
       <c r="P11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12">
@@ -9798,7 +9799,7 @@
       <c r="P12" s="6">
         <v>475</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="5" t="s">
@@ -9829,7 +9830,7 @@
       <c r="P13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="6">
@@ -9863,19 +9864,19 @@
       <c r="P14" s="6">
         <v>455</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>374</v>
       </c>
     </row>
@@ -9886,31 +9887,31 @@
       <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="L18" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N18" s="27" t="s">
+      <c r="L18" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N18" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9921,28 +9922,28 @@
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N19" s="27" t="s">
+      <c r="L19" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N19" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="P19" s="27" t="s">
+      <c r="P19" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9953,28 +9954,28 @@
       <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N20" s="27" t="s">
+      <c r="L20" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N20" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="P20" s="27" t="s">
+      <c r="P20" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="Q20" s="27" t="s">
+      <c r="Q20" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9985,28 +9986,28 @@
       <c r="B21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="L21" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N21" s="27" t="s">
+      <c r="L21" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N21" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10017,28 +10018,28 @@
       <c r="B22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="L22" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N22" s="27" t="s">
+      <c r="L22" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N22" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="O22" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="P22" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10049,28 +10050,28 @@
       <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N23" s="27" t="s">
+      <c r="L23" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N23" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10081,34 +10082,34 @@
       <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="J24" s="31" t="s">
+      <c r="J24" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="L24" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N24" s="27" t="s">
+      <c r="L24" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N24" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="P24" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="Q24" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>99</v>
+      <c r="A25" s="31" t="s">
+        <v>812</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>100</v>
@@ -10119,28 +10120,28 @@
       <c r="D25" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N25" s="27" t="s">
+      <c r="L25" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N25" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="O25" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10157,28 +10158,28 @@
       <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="L26" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N26" s="27" t="s">
+      <c r="L26" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N26" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10195,28 +10196,28 @@
       <c r="D27" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="O27" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="26" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10233,31 +10234,31 @@
       <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="L29" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N29" s="27" t="s">
+      <c r="L29" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N29" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="O29" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10268,28 +10269,28 @@
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="L30" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N30" s="27" t="s">
+      <c r="L30" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10300,28 +10301,28 @@
       <c r="C31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="L31" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N31" s="27" t="s">
+      <c r="L31" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N31" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="O31" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="P31" s="27" t="s">
+      <c r="P31" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="Q31" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10335,28 +10336,28 @@
       <c r="E32">
         <v>317</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="L32" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N32" s="27" t="s">
+      <c r="L32" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N32" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="P32" s="27" t="s">
+      <c r="P32" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10370,28 +10371,28 @@
       <c r="G33">
         <v>314</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="L33" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N33" s="27" t="s">
+      <c r="L33" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N33" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="O33" s="27" t="s">
+      <c r="O33" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="P33" s="27" t="s">
+      <c r="P33" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="Q33" s="27" t="s">
+      <c r="Q33" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10402,28 +10403,28 @@
       <c r="B34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="L34" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N34" s="27" t="s">
+      <c r="L34" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N34" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="O34" s="31" t="s">
+      <c r="O34" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="P34" s="27" t="s">
+      <c r="P34" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="Q34" s="27" t="s">
+      <c r="Q34" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10434,28 +10435,28 @@
       <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="L35" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N35" s="27" t="s">
+      <c r="L35" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N35" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="O35" s="31" t="s">
+      <c r="O35" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="P35" s="27" t="s">
+      <c r="P35" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10469,28 +10470,28 @@
       <c r="H36">
         <v>313</v>
       </c>
-      <c r="I36" s="27" t="s">
+      <c r="I36" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K36" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="L36" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N36" s="27" t="s">
+      <c r="L36" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N36" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="O36" s="27" t="s">
+      <c r="O36" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="P36" s="27" t="s">
+      <c r="P36" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="Q36" s="27" t="s">
+      <c r="Q36" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10504,28 +10505,28 @@
       <c r="E37">
         <v>312</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I37" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="J37" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="K37" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="L37" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N37" s="27" t="s">
+      <c r="L37" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="P37" s="27" t="s">
+      <c r="P37" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="Q37" s="27" t="s">
+      <c r="Q37" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10536,28 +10537,28 @@
       <c r="B38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="N38" s="29" t="s">
+      <c r="N38" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="O38" s="27" t="s">
+      <c r="O38" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="P38" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="Q38" s="27" t="s">
+      <c r="Q38" s="26" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10576,13 +10577,13 @@
       <c r="A40" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10590,10 +10591,10 @@
       <c r="A41" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D41" t="s">
@@ -10602,19 +10603,19 @@
       <c r="F41">
         <v>315</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="J41" s="32" t="s">
+      <c r="J41" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="K41" s="32" t="s">
+      <c r="K41" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10625,22 +10626,22 @@
       <c r="B42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="31" t="s">
         <v>551</v>
       </c>
       <c r="J42" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="32" t="s">
+      <c r="K42" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10651,7 +10652,7 @@
       <c r="B43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D43" t="s">
@@ -10663,10 +10664,10 @@
       <c r="J43" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K43" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10677,10 +10678,10 @@
       <c r="J44" t="s">
         <v>48</v>
       </c>
-      <c r="K44" s="32" t="s">
+      <c r="K44" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10697,10 +10698,10 @@
       <c r="J45" t="s">
         <v>96</v>
       </c>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10711,10 +10712,10 @@
       <c r="J46" t="s">
         <v>98</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L46" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10728,13 +10729,13 @@
       <c r="I47" t="s">
         <v>99</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="31" t="s">
         <v>605</v>
       </c>
-      <c r="K47" s="32" t="s">
+      <c r="K47" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="L47" s="27" t="s">
+      <c r="L47" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10751,10 +10752,10 @@
       <c r="J48" t="s">
         <v>104</v>
       </c>
-      <c r="K48" s="32" t="s">
+      <c r="K48" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="L48" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10771,10 +10772,10 @@
       <c r="J49" t="s">
         <v>108</v>
       </c>
-      <c r="K49" s="32" t="s">
+      <c r="K49" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10791,10 +10792,10 @@
       <c r="J50" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K50" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="L50" s="27" t="s">
+      <c r="L50" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10811,10 +10812,10 @@
       <c r="J51" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="32" t="s">
+      <c r="K51" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="L51" s="27" t="s">
+      <c r="L51" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10831,10 +10832,10 @@
       <c r="J52" t="s">
         <v>101</v>
       </c>
-      <c r="K52" s="32" t="s">
+      <c r="K52" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L52" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10849,10 +10850,10 @@
       <c r="J53" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="32" t="s">
+      <c r="K53" s="31" t="s">
         <v>565</v>
       </c>
-      <c r="L53" s="27" t="s">
+      <c r="L53" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10867,10 +10868,10 @@
       <c r="J54" t="s">
         <v>109</v>
       </c>
-      <c r="K54" s="32" t="s">
+      <c r="K54" s="31" t="s">
         <v>566</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10887,10 +10888,10 @@
       <c r="J55" t="s">
         <v>113</v>
       </c>
-      <c r="K55" s="32" t="s">
+      <c r="K55" s="31" t="s">
         <v>567</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="L55" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10901,16 +10902,16 @@
       <c r="B56" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="29" t="s">
+      <c r="I56" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="J56" s="27" t="s">
+      <c r="J56" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="K56" s="27" t="s">
+      <c r="K56" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="L56" s="27" t="s">
+      <c r="L56" s="26" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10929,16 +10930,16 @@
       <c r="B58" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I58" s="32" t="s">
+      <c r="I58" s="31" t="s">
         <v>570</v>
       </c>
       <c r="J58" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="32" t="s">
+      <c r="K58" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="L58" s="27" t="s">
+      <c r="L58" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10955,10 +10956,10 @@
       <c r="J59" t="s">
         <v>91</v>
       </c>
-      <c r="K59" s="32" t="s">
+      <c r="K59" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="L59" s="27" t="s">
+      <c r="L59" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10975,10 +10976,10 @@
       <c r="J60" t="s">
         <v>93</v>
       </c>
-      <c r="K60" s="32" t="s">
+      <c r="K60" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="L60" s="27" t="s">
+      <c r="L60" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -10995,10 +10996,10 @@
       <c r="J61" t="s">
         <v>96</v>
       </c>
-      <c r="K61" s="32" t="s">
+      <c r="K61" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="L61" s="27" t="s">
+      <c r="L61" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11015,10 +11016,10 @@
       <c r="J62" t="s">
         <v>98</v>
       </c>
-      <c r="K62" s="32" t="s">
+      <c r="K62" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="L62" s="27" t="s">
+      <c r="L62" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11030,10 +11031,10 @@
       <c r="J63" t="s">
         <v>123</v>
       </c>
-      <c r="K63" s="32" t="s">
+      <c r="K63" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="L63" s="27" t="s">
+      <c r="L63" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11050,10 +11051,10 @@
       <c r="J64" t="s">
         <v>125</v>
       </c>
-      <c r="K64" s="32" t="s">
+      <c r="K64" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="L64" s="27" t="s">
+      <c r="L64" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11065,10 +11066,10 @@
       <c r="J65" t="s">
         <v>127</v>
       </c>
-      <c r="K65" s="32" t="s">
+      <c r="K65" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="L65" s="27" t="s">
+      <c r="L65" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11079,10 +11080,10 @@
       <c r="J66" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="32" t="s">
+      <c r="K66" s="31" t="s">
         <v>584</v>
       </c>
-      <c r="L66" s="27" t="s">
+      <c r="L66" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11093,10 +11094,10 @@
       <c r="J67" t="s">
         <v>133</v>
       </c>
-      <c r="K67" s="32" t="s">
+      <c r="K67" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="L67" s="27" t="s">
+      <c r="L67" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11107,10 +11108,10 @@
       <c r="J68" t="s">
         <v>108</v>
       </c>
-      <c r="K68" s="32" t="s">
+      <c r="K68" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="L68" s="27" t="s">
+      <c r="L68" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11121,10 +11122,10 @@
       <c r="J69" t="s">
         <v>108</v>
       </c>
-      <c r="K69" s="32" t="s">
+      <c r="K69" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="L69" s="27" t="s">
+      <c r="L69" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11135,10 +11136,10 @@
       <c r="J70" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="K70" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="L70" s="27" t="s">
+      <c r="L70" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11149,10 +11150,10 @@
       <c r="J71" t="s">
         <v>130</v>
       </c>
-      <c r="K71" s="32" t="s">
+      <c r="K71" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="L71" s="27" t="s">
+      <c r="L71" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11163,10 +11164,10 @@
       <c r="J72" t="s">
         <v>133</v>
       </c>
-      <c r="K72" s="32" t="s">
+      <c r="K72" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="L72" s="27" t="s">
+      <c r="L72" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11177,10 +11178,10 @@
       <c r="J73" t="s">
         <v>109</v>
       </c>
-      <c r="K73" s="32" t="s">
+      <c r="K73" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="L73" s="27" t="s">
+      <c r="L73" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11191,38 +11192,38 @@
       <c r="J74" t="s">
         <v>113</v>
       </c>
-      <c r="K74" s="32" t="s">
+      <c r="K74" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="L74" s="27" t="s">
+      <c r="L74" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="75" spans="2:12">
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="J75" s="27" t="s">
+      <c r="J75" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="K75" s="27" t="s">
+      <c r="K75" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="L75" s="27" t="s">
+      <c r="L75" s="26" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="77" spans="2:12">
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="31" t="s">
         <v>573</v>
       </c>
       <c r="J77" t="s">
         <v>7</v>
       </c>
-      <c r="K77" s="32" t="s">
+      <c r="K77" s="31" t="s">
         <v>591</v>
       </c>
-      <c r="L77" s="27" t="s">
+      <c r="L77" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11233,10 +11234,10 @@
       <c r="J78" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="32" t="s">
+      <c r="K78" s="31" t="s">
         <v>592</v>
       </c>
-      <c r="L78" s="27" t="s">
+      <c r="L78" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11247,10 +11248,10 @@
       <c r="J79" t="s">
         <v>93</v>
       </c>
-      <c r="K79" s="32" t="s">
+      <c r="K79" s="31" t="s">
         <v>593</v>
       </c>
-      <c r="L79" s="27" t="s">
+      <c r="L79" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11261,10 +11262,10 @@
       <c r="J80" t="s">
         <v>145</v>
       </c>
-      <c r="K80" s="32" t="s">
+      <c r="K80" s="31" t="s">
         <v>594</v>
       </c>
-      <c r="L80" s="27" t="s">
+      <c r="L80" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11275,10 +11276,10 @@
       <c r="J81" t="s">
         <v>147</v>
       </c>
-      <c r="K81" s="32" t="s">
+      <c r="K81" s="31" t="s">
         <v>595</v>
       </c>
-      <c r="L81" s="27" t="s">
+      <c r="L81" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11289,10 +11290,10 @@
       <c r="J82" t="s">
         <v>123</v>
       </c>
-      <c r="K82" s="32" t="s">
+      <c r="K82" s="31" t="s">
         <v>596</v>
       </c>
-      <c r="L82" s="27" t="s">
+      <c r="L82" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11303,10 +11304,10 @@
       <c r="J83" t="s">
         <v>152</v>
       </c>
-      <c r="K83" s="32" t="s">
+      <c r="K83" s="31" t="s">
         <v>597</v>
       </c>
-      <c r="L83" s="27" t="s">
+      <c r="L83" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11317,10 +11318,10 @@
       <c r="J84" t="s">
         <v>154</v>
       </c>
-      <c r="K84" s="32" t="s">
+      <c r="K84" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="L84" s="27" t="s">
+      <c r="L84" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11331,10 +11332,10 @@
       <c r="J85" t="s">
         <v>156</v>
       </c>
-      <c r="K85" s="32" t="s">
+      <c r="K85" s="31" t="s">
         <v>599</v>
       </c>
-      <c r="L85" s="27" t="s">
+      <c r="L85" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11345,10 +11346,10 @@
       <c r="J86" t="s">
         <v>158</v>
       </c>
-      <c r="K86" s="32" t="s">
+      <c r="K86" s="31" t="s">
         <v>600</v>
       </c>
-      <c r="L86" s="27" t="s">
+      <c r="L86" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11359,10 +11360,10 @@
       <c r="J87" t="s">
         <v>160</v>
       </c>
-      <c r="K87" s="32" t="s">
+      <c r="K87" s="31" t="s">
         <v>601</v>
       </c>
-      <c r="L87" s="27" t="s">
+      <c r="L87" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11373,10 +11374,10 @@
       <c r="J88" t="s">
         <v>96</v>
       </c>
-      <c r="K88" s="32" t="s">
+      <c r="K88" s="31" t="s">
         <v>602</v>
       </c>
-      <c r="L88" s="27" t="s">
+      <c r="L88" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11387,10 +11388,10 @@
       <c r="J89" t="s">
         <v>98</v>
       </c>
-      <c r="K89" s="32" t="s">
+      <c r="K89" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="L89" s="27" t="s">
+      <c r="L89" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -11401,36 +11402,36 @@
       <c r="J90" t="s">
         <v>16</v>
       </c>
-      <c r="K90" s="32" t="s">
+      <c r="K90" s="31" t="s">
         <v>604</v>
       </c>
-      <c r="L90" s="27" t="s">
+      <c r="L90" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="91" spans="9:12">
-      <c r="I91" s="29" t="s">
+      <c r="I91" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="J91" s="27" t="s">
+      <c r="J91" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="K91" s="27" t="s">
+      <c r="K91" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="L91" s="27" t="s">
+      <c r="L91" s="26" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="92" spans="9:12">
-      <c r="K92" s="32"/>
-      <c r="L92" s="27"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="26"/>
     </row>
     <row r="93" spans="9:12">
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11444,8 +11445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -12101,1252 +12102,1252 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="N34" s="26" t="s">
+      <c r="N34" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="P34" s="26" t="s">
+      <c r="P34" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="Q34" s="26" t="s">
+      <c r="Q34" s="25" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>609</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="31" t="s">
         <v>638</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F35" s="32" t="s">
+      <c r="E35" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>660</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" t="s">
         <v>165</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="I35" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J35" s="32" t="s">
+      <c r="I35" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J35" s="31" t="s">
         <v>705</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" t="s">
         <v>165</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="L35" s="31" t="s">
         <v>729</v>
       </c>
-      <c r="M35" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N35" s="32" t="s">
+      <c r="M35" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N35" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="O35" s="33" t="s">
+      <c r="O35" t="s">
         <v>165</v>
       </c>
-      <c r="P35" s="36" t="s">
+      <c r="P35" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>610</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="31" t="s">
         <v>639</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F36" s="32" t="s">
+      <c r="E36" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="31" t="s">
         <v>685</v>
       </c>
-      <c r="I36" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J36" s="32" t="s">
+      <c r="I36" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J36" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" t="s">
         <v>168</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="31" t="s">
         <v>730</v>
       </c>
-      <c r="M36" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N36" s="32" t="s">
+      <c r="M36" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="O36" s="33" t="s">
+      <c r="O36" t="s">
         <v>168</v>
       </c>
-      <c r="P36" s="36" t="s">
+      <c r="P36" s="31" t="s">
         <v>786</v>
       </c>
-      <c r="Q36" s="27" t="s">
+      <c r="Q36" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>611</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="31" t="s">
         <v>640</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="E37" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="I37" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J37" s="32" t="s">
+      <c r="I37" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J37" s="31" t="s">
         <v>707</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" t="s">
         <v>169</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="M37" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N37" s="32" t="s">
+      <c r="M37" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N37" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" t="s">
         <v>169</v>
       </c>
-      <c r="P37" s="36" t="s">
+      <c r="P37" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="Q37" s="27" t="s">
+      <c r="Q37" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>612</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="31" t="s">
         <v>641</v>
       </c>
-      <c r="E38" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F38" s="31" t="s">
         <v>663</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="I38" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J38" s="32" t="s">
+      <c r="I38" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J38" s="31" t="s">
         <v>708</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" t="s">
         <v>171</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="M38" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N38" s="32" t="s">
+      <c r="M38" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N38" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="O38" s="33" t="s">
+      <c r="O38" t="s">
         <v>171</v>
       </c>
-      <c r="P38" s="36" t="s">
+      <c r="P38" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="Q38" s="27" t="s">
+      <c r="Q38" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="31" t="s">
         <v>642</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F39" s="31" t="s">
         <v>665</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="I39" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J39" s="32" t="s">
+      <c r="I39" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J39" s="31" t="s">
         <v>710</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" t="s">
         <v>166</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="31" t="s">
         <v>733</v>
       </c>
-      <c r="M39" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N39" s="32" t="s">
+      <c r="M39" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N39" s="31" t="s">
         <v>761</v>
       </c>
-      <c r="O39" s="33" t="s">
+      <c r="O39" t="s">
         <v>166</v>
       </c>
-      <c r="P39" s="36" t="s">
+      <c r="P39" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="Q39" s="27" t="s">
+      <c r="Q39" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="31" t="s">
         <v>614</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="31" t="s">
         <v>643</v>
       </c>
-      <c r="E40" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F40" s="32" t="s">
+      <c r="E40" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" t="s">
         <v>167</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="I40" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J40" s="32" t="s">
+      <c r="I40" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J40" s="31" t="s">
         <v>709</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" t="s">
         <v>167</v>
       </c>
-      <c r="L40" s="36" t="s">
+      <c r="L40" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="M40" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N40" s="32" t="s">
+      <c r="M40" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N40" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="O40" s="33" t="s">
+      <c r="O40" t="s">
         <v>167</v>
       </c>
-      <c r="P40" s="36" t="s">
+      <c r="P40" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="Q40" s="27" t="s">
+      <c r="Q40" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="31" t="s">
         <v>615</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="31" t="s">
         <v>644</v>
       </c>
-      <c r="E41" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F41" s="32" t="s">
+      <c r="E41" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" t="s">
         <v>170</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="I41" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J41" s="32" t="s">
+      <c r="I41" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J41" s="31" t="s">
         <v>711</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" t="s">
         <v>170</v>
       </c>
-      <c r="L41" s="36" t="s">
+      <c r="L41" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="M41" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N41" s="32" t="s">
+      <c r="M41" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N41" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="O41" s="33" t="s">
+      <c r="O41" t="s">
         <v>170</v>
       </c>
-      <c r="P41" s="36" t="s">
+      <c r="P41" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="31" t="s">
         <v>616</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="31" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F42" s="32" t="s">
+      <c r="E42" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F42" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="I42" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J42" s="32" t="s">
+      <c r="I42" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J42" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" t="s">
         <v>172</v>
       </c>
-      <c r="L42" s="36" t="s">
+      <c r="L42" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="M42" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N42" s="32" t="s">
+      <c r="M42" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N42" s="31" t="s">
         <v>764</v>
       </c>
-      <c r="O42" s="33" t="s">
+      <c r="O42" t="s">
         <v>172</v>
       </c>
-      <c r="P42" s="36" t="s">
+      <c r="P42" s="31" t="s">
         <v>792</v>
       </c>
-      <c r="Q42" s="27" t="s">
+      <c r="Q42" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>617</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" t="s">
         <v>618</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="31" t="s">
         <v>659</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="28" t="s">
         <v>668</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="31" t="s">
         <v>692</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="28" t="s">
         <v>713</v>
       </c>
-      <c r="K43" s="35" t="s">
+      <c r="K43" s="31" t="s">
         <v>783</v>
       </c>
-      <c r="L43" s="35" t="s">
+      <c r="L43" s="31" t="s">
         <v>737</v>
       </c>
-      <c r="M43" s="27" t="s">
+      <c r="M43" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="N43" s="29" t="s">
+      <c r="N43" s="28" t="s">
         <v>755</v>
       </c>
-      <c r="O43" s="35" t="s">
+      <c r="O43" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="P43" s="35" t="s">
+      <c r="P43" s="31" t="s">
         <v>795</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="Q43" s="26" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="31" t="s">
         <v>646</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F44" s="32" t="s">
+      <c r="E44" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F44" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" t="s">
         <v>379</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="I44" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J44" s="32" t="s">
+      <c r="I44" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J44" s="31" t="s">
         <v>714</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="K44" t="s">
         <v>379</v>
       </c>
-      <c r="L44" s="35" t="s">
+      <c r="L44" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="M44" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N44" s="32" t="s">
+      <c r="M44" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N44" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="O44" s="34" t="s">
+      <c r="O44" t="s">
         <v>379</v>
       </c>
-      <c r="P44" s="35" t="s">
+      <c r="P44" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q44" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="31" t="s">
         <v>647</v>
       </c>
-      <c r="E45" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F45" s="32" t="s">
+      <c r="E45" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="31" t="s">
         <v>694</v>
       </c>
-      <c r="I45" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J45" s="32" t="s">
+      <c r="I45" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J45" s="31" t="s">
         <v>715</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" t="s">
         <v>76</v>
       </c>
-      <c r="L45" s="36" t="s">
+      <c r="L45" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="M45" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N45" s="32" t="s">
+      <c r="M45" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N45" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="O45" s="33" t="s">
+      <c r="O45" t="s">
         <v>76</v>
       </c>
-      <c r="P45" s="36" t="s">
+      <c r="P45" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q45" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>621</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F46" s="32" t="s">
+      <c r="E46" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="31" t="s">
         <v>695</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J46" s="32" t="s">
+      <c r="I46" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" s="31" t="s">
         <v>716</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" t="s">
         <v>182</v>
       </c>
-      <c r="L46" s="36" t="s">
+      <c r="L46" s="31" t="s">
         <v>740</v>
       </c>
-      <c r="M46" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N46" s="32" t="s">
+      <c r="M46" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N46" s="31" t="s">
         <v>767</v>
       </c>
-      <c r="O46" s="33" t="s">
+      <c r="O46" t="s">
         <v>182</v>
       </c>
-      <c r="P46" s="36" t="s">
+      <c r="P46" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="31" t="s">
         <v>649</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F47" s="32" t="s">
+      <c r="E47" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="31" t="s">
         <v>696</v>
       </c>
-      <c r="I47" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J47" s="32" t="s">
+      <c r="I47" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" s="31" t="s">
         <v>717</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="M47" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N47" s="32" t="s">
+      <c r="M47" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N47" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="O47" s="33" t="s">
+      <c r="O47" t="s">
         <v>181</v>
       </c>
-      <c r="P47" s="36" t="s">
+      <c r="P47" s="31" t="s">
         <v>797</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="Q47" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="31" t="s">
         <v>623</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" t="s">
         <v>390</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F48" s="32" t="s">
+      <c r="E48" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F48" s="31" t="s">
         <v>673</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" t="s">
         <v>390</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="31" t="s">
         <v>697</v>
       </c>
-      <c r="I48" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J48" s="32" t="s">
+      <c r="I48" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K48" t="s">
         <v>390</v>
       </c>
-      <c r="L48" s="35" t="s">
+      <c r="L48" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="M48" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N48" s="32" t="s">
+      <c r="M48" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N48" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="O48" s="34" t="s">
+      <c r="O48" t="s">
         <v>390</v>
       </c>
-      <c r="P48" s="35" t="s">
+      <c r="P48" s="31" t="s">
         <v>798</v>
       </c>
-      <c r="Q48" s="27" t="s">
+      <c r="Q48" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>624</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" t="s">
         <v>391</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F49" s="32" t="s">
+      <c r="E49" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F49" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="G49" s="34" t="s">
+      <c r="G49" t="s">
         <v>391</v>
       </c>
-      <c r="H49" s="35" t="s">
+      <c r="H49" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="I49" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J49" s="32" t="s">
+      <c r="I49" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" s="31" t="s">
         <v>719</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" t="s">
         <v>391</v>
       </c>
-      <c r="L49" s="35" t="s">
+      <c r="L49" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="M49" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N49" s="32" t="s">
+      <c r="M49" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N49" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="O49" s="34" t="s">
+      <c r="O49" t="s">
         <v>391</v>
       </c>
-      <c r="P49" s="35" t="s">
+      <c r="P49" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="Q49" s="27" t="s">
+      <c r="Q49" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>625</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" t="s">
         <v>427</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="31" t="s">
         <v>650</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F50" s="31" t="s">
         <v>675</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="G50" t="s">
         <v>427</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="31" t="s">
         <v>699</v>
       </c>
-      <c r="I50" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J50" s="32" t="s">
+      <c r="I50" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" s="31" t="s">
         <v>720</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" t="s">
         <v>427</v>
       </c>
-      <c r="L50" s="35" t="s">
+      <c r="L50" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="M50" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N50" s="32" t="s">
+      <c r="M50" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N50" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="O50" s="34" t="s">
+      <c r="O50" t="s">
         <v>427</v>
       </c>
-      <c r="P50" s="35" t="s">
+      <c r="P50" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="Q50" s="27" t="s">
+      <c r="Q50" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" t="s">
         <v>627</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="31" t="s">
         <v>651</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="F51" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G51" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="J51" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="K51" s="35" t="s">
+      <c r="K51" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="L51" s="35" t="s">
+      <c r="L51" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="M51" s="27" t="s">
+      <c r="M51" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="N51" s="29" t="s">
+      <c r="N51" s="28" t="s">
         <v>756</v>
       </c>
-      <c r="O51" s="35" t="s">
+      <c r="O51" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="P51" s="35" t="s">
+      <c r="P51" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="Q51" s="27" t="s">
+      <c r="Q51" s="26" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="31" t="s">
         <v>631</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" t="s">
         <v>379</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F52" s="32" t="s">
+      <c r="E52" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" t="s">
         <v>379</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="31" t="s">
         <v>753</v>
       </c>
-      <c r="I52" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J52" s="32" t="s">
+      <c r="I52" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J52" s="31" t="s">
         <v>722</v>
       </c>
-      <c r="K52" s="34" t="s">
+      <c r="K52" t="s">
         <v>379</v>
       </c>
-      <c r="L52" s="35" t="s">
+      <c r="L52" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="M52" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N52" s="32" t="s">
+      <c r="M52" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N52" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="O52" s="34" t="s">
+      <c r="O52" t="s">
         <v>379</v>
       </c>
-      <c r="P52" s="35" t="s">
+      <c r="P52" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="Q52" s="27" t="s">
+      <c r="Q52" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>632</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F53" s="32" t="s">
+      <c r="E53" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G53" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="H53" s="35" t="s">
+      <c r="H53" s="31" t="s">
         <v>700</v>
       </c>
-      <c r="I53" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J53" s="32" t="s">
+      <c r="I53" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" s="31" t="s">
         <v>723</v>
       </c>
-      <c r="K53" s="35" t="s">
+      <c r="K53" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="L53" s="35" t="s">
+      <c r="L53" s="31" t="s">
         <v>747</v>
       </c>
-      <c r="M53" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N53" s="32" t="s">
+      <c r="M53" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N53" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="O53" s="35" t="s">
+      <c r="O53" s="31" t="s">
         <v>628</v>
       </c>
-      <c r="P53" s="35" t="s">
+      <c r="P53" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="Q53" s="27" t="s">
+      <c r="Q53" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="31" t="s">
         <v>633</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F54" s="32" t="s">
+      <c r="E54" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F54" s="31" t="s">
         <v>679</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="I54" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J54" s="32" t="s">
+      <c r="I54" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="K54" s="35" t="s">
+      <c r="K54" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="L54" s="35" t="s">
+      <c r="L54" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="M54" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N54" s="32" t="s">
+      <c r="M54" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N54" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="O54" s="35" t="s">
+      <c r="O54" s="31" t="s">
         <v>629</v>
       </c>
-      <c r="P54" s="35" t="s">
+      <c r="P54" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="Q54" s="27" t="s">
+      <c r="Q54" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="31" t="s">
         <v>630</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="31" t="s">
         <v>654</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F55" s="32" t="s">
+      <c r="E55" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F55" s="31" t="s">
         <v>680</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G55" s="31" t="s">
         <v>630</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="I55" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J55" s="32" t="s">
+      <c r="I55" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" s="31" t="s">
         <v>725</v>
       </c>
-      <c r="K55" s="35" t="s">
+      <c r="K55" s="31" t="s">
         <v>630</v>
       </c>
-      <c r="L55" s="35" t="s">
+      <c r="L55" s="31" t="s">
         <v>749</v>
       </c>
-      <c r="M55" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N55" s="32" t="s">
+      <c r="M55" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N55" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="O55" s="35" t="s">
+      <c r="O55" s="31" t="s">
         <v>630</v>
       </c>
-      <c r="P55" s="35" t="s">
+      <c r="P55" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="Q55" s="27" t="s">
+      <c r="Q55" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" t="s">
         <v>390</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="31" t="s">
         <v>657</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F56" s="32" t="s">
+      <c r="E56" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F56" s="31" t="s">
         <v>682</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" t="s">
         <v>390</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="31" t="s">
         <v>703</v>
       </c>
-      <c r="I56" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J56" s="32" t="s">
+      <c r="I56" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J56" s="31" t="s">
         <v>726</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="K56" t="s">
         <v>390</v>
       </c>
-      <c r="L56" s="35" t="s">
+      <c r="L56" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="M56" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N56" s="32" t="s">
+      <c r="M56" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N56" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="O56" s="34" t="s">
+      <c r="O56" t="s">
         <v>390</v>
       </c>
-      <c r="P56" s="35" t="s">
+      <c r="P56" s="31" t="s">
         <v>805</v>
       </c>
-      <c r="Q56" s="27" t="s">
+      <c r="Q56" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="31" t="s">
         <v>636</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" t="s">
         <v>391</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="31" t="s">
         <v>658</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F57" s="32" t="s">
+      <c r="E57" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F57" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="G57" s="34" t="s">
+      <c r="G57" t="s">
         <v>391</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="H57" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="I57" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J57" s="32" t="s">
+      <c r="I57" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" s="31" t="s">
         <v>727</v>
       </c>
-      <c r="K57" s="34" t="s">
+      <c r="K57" t="s">
         <v>391</v>
       </c>
-      <c r="L57" s="35" t="s">
+      <c r="L57" s="31" t="s">
         <v>751</v>
       </c>
-      <c r="M57" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N57" s="32" t="s">
+      <c r="M57" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N57" s="31" t="s">
         <v>780</v>
       </c>
-      <c r="O57" s="34" t="s">
+      <c r="O57" t="s">
         <v>391</v>
       </c>
-      <c r="P57" s="35" t="s">
+      <c r="P57" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="Q57" s="27" t="s">
+      <c r="Q57" s="26" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>637</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" t="s">
         <v>427</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F58" s="32" t="s">
+      <c r="E58" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F58" s="31" t="s">
         <v>681</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" t="s">
         <v>427</v>
       </c>
-      <c r="H58" s="35" t="s">
+      <c r="H58" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="I58" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="J58" s="32" t="s">
+      <c r="I58" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="J58" s="31" t="s">
         <v>728</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" t="s">
         <v>427</v>
       </c>
-      <c r="L58" s="35" t="s">
+      <c r="L58" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="M58" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="N58" s="32" t="s">
+      <c r="M58" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="N58" s="31" t="s">
         <v>781</v>
       </c>
-      <c r="O58" s="34" t="s">
+      <c r="O58" t="s">
         <v>427</v>
       </c>
-      <c r="P58" s="35" t="s">
+      <c r="P58" s="31" t="s">
         <v>810</v>
       </c>
-      <c r="Q58" s="27" t="s">
+      <c r="Q58" s="26" t="s">
         <v>401</v>
       </c>
     </row>
